--- a/hofer_list_and_player_per_game_averages.xlsx
+++ b/hofer_list_and_player_per_game_averages.xlsx
@@ -1,40 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Side Projects\NBA Stats - 1946-47 to 2023-24\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A410F8-3C39-4826-9080-62F790F593DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$109</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="160">
   <si>
     <t>player_id</t>
   </si>
@@ -72,6 +52,9 @@
     <t>Adrian Dantley</t>
   </si>
   <si>
+    <t>Al Cervi</t>
+  </si>
+  <si>
     <t>Alex English</t>
   </si>
   <si>
@@ -81,12 +64,21 @@
     <t>Alonzo Mourning</t>
   </si>
   <si>
+    <t>Andy Phillip</t>
+  </si>
+  <si>
+    <t>Arnie Risen</t>
+  </si>
+  <si>
     <t>Artis Gilmore</t>
   </si>
   <si>
     <t>Arvydas Sabonis</t>
   </si>
   <si>
+    <t>Bailey Howell</t>
+  </si>
+  <si>
     <t>Ben Wallace</t>
   </si>
   <si>
@@ -96,27 +88,54 @@
     <t>Bill Bradley</t>
   </si>
   <si>
+    <t>Bill Russell</t>
+  </si>
+  <si>
+    <t>Bill Sharman</t>
+  </si>
+  <si>
     <t>Bill Walton</t>
   </si>
   <si>
     <t>Billy Cunningham</t>
   </si>
   <si>
+    <t>Bob Cousy</t>
+  </si>
+  <si>
     <t>Bob Dandridge</t>
   </si>
   <si>
+    <t>Bob Davies</t>
+  </si>
+  <si>
+    <t>Bob Houbregs</t>
+  </si>
+  <si>
     <t>Bob Lanier</t>
   </si>
   <si>
     <t>Bob McAdoo</t>
   </si>
   <si>
+    <t>Bob Pettit</t>
+  </si>
+  <si>
     <t>Bobby Jones</t>
   </si>
   <si>
+    <t>Bobby Wanzer</t>
+  </si>
+  <si>
+    <t>Buddy Jeannette</t>
+  </si>
+  <si>
     <t>Calvin Murphy</t>
   </si>
   <si>
+    <t>Carl Braun</t>
+  </si>
+  <si>
     <t>Charles Barkley</t>
   </si>
   <si>
@@ -138,9 +157,15 @@
     <t>Chris Webber</t>
   </si>
   <si>
+    <t>Cliff Hagan</t>
+  </si>
+  <si>
     <t>Clyde Drexler</t>
   </si>
   <si>
+    <t>Clyde Lovellette</t>
+  </si>
+  <si>
     <t>Connie Hawkins</t>
   </si>
   <si>
@@ -171,6 +196,9 @@
     <t>Dick Barnett</t>
   </si>
   <si>
+    <t>Dick McGuire</t>
+  </si>
+  <si>
     <t>Dikembe Mutombo</t>
   </si>
   <si>
@@ -180,6 +208,9 @@
     <t>Dirk Nowitzki</t>
   </si>
   <si>
+    <t>Dolph Schayes</t>
+  </si>
+  <si>
     <t>Dominique Wilkins</t>
   </si>
   <si>
@@ -189,9 +220,18 @@
     <t>Earl Monroe</t>
   </si>
   <si>
+    <t>Ed Macauley</t>
+  </si>
+  <si>
+    <t>Elgin Baylor</t>
+  </si>
+  <si>
     <t>Elvin Hayes</t>
   </si>
   <si>
+    <t>Frank Ramsey</t>
+  </si>
+  <si>
     <t>Gail Goodrich</t>
   </si>
   <si>
@@ -204,18 +244,39 @@
     <t>George McGinnis</t>
   </si>
   <si>
+    <t>George Mikan</t>
+  </si>
+  <si>
+    <t>George Yardley</t>
+  </si>
+  <si>
     <t>Grant Hill</t>
   </si>
   <si>
+    <t>Gus Johnson</t>
+  </si>
+  <si>
+    <t>Guy Rodgers</t>
+  </si>
+  <si>
     <t>Hakeem Olajuwon</t>
   </si>
   <si>
+    <t>Hal Greer</t>
+  </si>
+  <si>
+    <t>Harry Gallatin</t>
+  </si>
+  <si>
     <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Jack Sikma</t>
   </si>
   <si>
+    <t>Jack Twyman</t>
+  </si>
+  <si>
     <t>Jamaal Wilkes</t>
   </si>
   <si>
@@ -231,9 +292,15 @@
     <t>Jerry West</t>
   </si>
   <si>
+    <t>Jim Pollard</t>
+  </si>
+  <si>
     <t>Joe Dumars</t>
   </si>
   <si>
+    <t>Joe Fulks</t>
+  </si>
+  <si>
     <t>John Havlicek</t>
   </si>
   <si>
@@ -243,6 +310,9 @@
     <t>Julius Erving</t>
   </si>
   <si>
+    <t>K.C. Jones</t>
+  </si>
+  <si>
     <t>Kareem Abdul-Jabbar</t>
   </si>
   <si>
@@ -276,6 +346,9 @@
     <t>Maurice Cheeks</t>
   </si>
   <si>
+    <t>Maurice Stokes</t>
+  </si>
+  <si>
     <t>Mel Daniels</t>
   </si>
   <si>
@@ -294,6 +367,9 @@
     <t>Nate Thurmond</t>
   </si>
   <si>
+    <t>Neil Johnston</t>
+  </si>
+  <si>
     <t>Oscar Robertson</t>
   </si>
   <si>
@@ -303,6 +379,9 @@
     <t>Pau Gasol</t>
   </si>
   <si>
+    <t>Paul Arizin</t>
+  </si>
+  <si>
     <t>Paul Pierce</t>
   </si>
   <si>
@@ -321,6 +400,9 @@
     <t>Reggie Miller</t>
   </si>
   <si>
+    <t>Richie Guerin</t>
+  </si>
+  <si>
     <t>Rick Barry</t>
   </si>
   <si>
@@ -330,6 +412,9 @@
     <t>Roger Brown</t>
   </si>
   <si>
+    <t>Sam Jones</t>
+  </si>
+  <si>
     <t>Sarunas Marciulionis</t>
   </si>
   <si>
@@ -342,6 +427,9 @@
     <t>Sidney Moncrief</t>
   </si>
   <si>
+    <t>Slater Martin</t>
+  </si>
+  <si>
     <t>Spencer Haywood</t>
   </si>
   <si>
@@ -357,6 +445,12 @@
     <t>Tiny Archibald</t>
   </si>
   <si>
+    <t>Tom Gola</t>
+  </si>
+  <si>
+    <t>Tom Heinsohn</t>
+  </si>
+  <si>
     <t>Toni Kukoc</t>
   </si>
   <si>
@@ -366,6 +460,9 @@
     <t>Tracy McGrady</t>
   </si>
   <si>
+    <t>Vern Mikkelsen</t>
+  </si>
+  <si>
     <t>Vince Carter</t>
   </si>
   <si>
@@ -387,6 +484,9 @@
     <t>Willis Reed</t>
   </si>
   <si>
+    <t>Wilt Chamberlain</t>
+  </si>
+  <si>
     <t>Yao Ming</t>
   </si>
   <si>
@@ -394,16 +494,13 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>TEMPORARY MODIFIED NUM_SEASONS VALUES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,18 +517,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -461,36 +552,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -528,7 +607,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -562,7 +641,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -597,10 +675,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,27 +850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="0" hidden="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,12 +891,8 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="P1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>46</v>
       </c>
@@ -843,7 +903,7 @@
         <v>1955</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -867,1018 +927,919 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
+        <v>1917</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1950</v>
+      </c>
+      <c r="G3">
         <v>1953</v>
       </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>1977</v>
-      </c>
-      <c r="G3">
-        <v>1991</v>
-      </c>
       <c r="H3">
-        <v>84.73</v>
+        <v>50.5</v>
       </c>
       <c r="I3">
-        <v>23.55</v>
+        <v>7.55</v>
       </c>
       <c r="J3">
-        <v>3.98</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1975</v>
+        <v>1953</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>1997</v>
+        <v>1977</v>
       </c>
       <c r="G4">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>84.73</v>
       </c>
       <c r="I4">
-        <v>34.51</v>
+        <v>23.55</v>
       </c>
       <c r="J4">
-        <v>8.42</v>
+        <v>3.98</v>
       </c>
       <c r="K4">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="G5">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="H5">
-        <v>58.33</v>
+        <v>76</v>
       </c>
       <c r="I5">
-        <v>16.7</v>
+        <v>34.51</v>
       </c>
       <c r="J5">
-        <v>1.1200000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="K5">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>1972</v>
+        <v>1993</v>
       </c>
       <c r="G6">
-        <v>1988</v>
+        <v>2008</v>
       </c>
       <c r="H6">
-        <v>82.35</v>
+        <v>58.33</v>
       </c>
       <c r="I6">
-        <v>18.989999999999998</v>
+        <v>16.7</v>
       </c>
       <c r="J6">
-        <v>2.29</v>
+        <v>1.12</v>
       </c>
       <c r="K6">
-        <v>12.21</v>
-      </c>
-      <c r="M6">
-        <v>1974</v>
-      </c>
-      <c r="N6">
-        <f>$M$6-F6</f>
-        <v>2</v>
-      </c>
-      <c r="P6" s="3">
-        <f>E6-N6</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1964</v>
+        <v>1922</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>1996</v>
+        <v>1948</v>
       </c>
       <c r="G7">
-        <v>2003</v>
+        <v>1958</v>
       </c>
       <c r="H7">
-        <v>67.14</v>
+        <v>70.09</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>11.24</v>
       </c>
       <c r="J7">
-        <v>2.06</v>
+        <v>6.47</v>
       </c>
       <c r="K7">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1974</v>
+        <v>1924</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1997</v>
+        <v>1949</v>
       </c>
       <c r="G8">
-        <v>2012</v>
+        <v>1958</v>
       </c>
       <c r="H8">
-        <v>72.5</v>
+        <v>63.7</v>
       </c>
       <c r="I8">
-        <v>5.97</v>
+        <v>11.86</v>
       </c>
       <c r="J8">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="K8">
-        <v>9.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="G9">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="H9">
-        <v>62.43</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="I9">
-        <v>21.41</v>
+        <v>18.99</v>
       </c>
       <c r="J9">
-        <v>3.14</v>
+        <v>2.29</v>
       </c>
       <c r="K9">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
-        <v>376</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10">
-        <v>1943</v>
+        <v>1964</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>1968</v>
+        <v>1996</v>
       </c>
       <c r="G10">
-        <v>1977</v>
+        <v>2003</v>
       </c>
       <c r="H10">
-        <v>74.2</v>
+        <v>67.14</v>
       </c>
       <c r="I10">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="J10">
-        <v>3.38</v>
+        <v>2.06</v>
       </c>
       <c r="K10">
-        <v>3.13</v>
-      </c>
-      <c r="N10">
-        <f>$M$6-F10</f>
-        <v>6</v>
-      </c>
-      <c r="P10" s="3">
-        <f>E10-N10</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
-        <v>422</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1952</v>
+        <v>1936</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>1975</v>
+        <v>1960</v>
       </c>
       <c r="G11">
-        <v>1987</v>
+        <v>1971</v>
       </c>
       <c r="H11">
-        <v>46.8</v>
+        <v>79.17</v>
       </c>
       <c r="I11">
-        <v>12.7</v>
+        <v>18.76</v>
       </c>
       <c r="J11">
-        <v>3.25</v>
+        <v>1.96</v>
       </c>
       <c r="K11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12">
-        <v>1943</v>
+        <v>1974</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>1966</v>
+        <v>1997</v>
       </c>
       <c r="G12">
-        <v>1976</v>
+        <v>2012</v>
       </c>
       <c r="H12">
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="I12">
-        <v>20.61</v>
+        <v>5.97</v>
       </c>
       <c r="J12">
-        <v>4.37</v>
+        <v>1.38</v>
       </c>
       <c r="K12">
-        <v>10.14</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ref="N12:N15" si="0">$M$6-F12</f>
-        <v>8</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" ref="P12:P15" si="1">E12-N12</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
-        <v>478</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13">
-        <v>1947</v>
+        <v>1956</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="G13">
-        <v>1982</v>
+        <v>1993</v>
       </c>
       <c r="H13">
-        <v>64.540000000000006</v>
+        <v>62.43</v>
       </c>
       <c r="I13">
-        <v>17.16</v>
+        <v>21.41</v>
       </c>
       <c r="J13">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="K13">
-        <v>6.24</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
-        <v>507</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="G14">
-        <v>1984</v>
+        <v>1977</v>
       </c>
       <c r="H14">
-        <v>73</v>
+        <v>74.2</v>
       </c>
       <c r="I14">
-        <v>22.5</v>
+        <v>12.12</v>
       </c>
       <c r="J14">
-        <v>3.51</v>
+        <v>3.38</v>
       </c>
       <c r="K14">
-        <v>10.44</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
-        <v>512</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>1973</v>
+        <v>1957</v>
       </c>
       <c r="G15">
-        <v>1986</v>
+        <v>1969</v>
       </c>
       <c r="H15">
-        <v>71.430000000000007</v>
+        <v>74.08</v>
       </c>
       <c r="I15">
-        <v>28.59</v>
+        <v>15.12</v>
       </c>
       <c r="J15">
-        <v>3.24</v>
+        <v>4.16</v>
       </c>
       <c r="K15">
-        <v>10.35</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
-        <v>559</v>
+        <v>416</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
+        <v>1926</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
         <v>1951</v>
       </c>
-      <c r="D16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>1975</v>
-      </c>
       <c r="G16">
-        <v>1986</v>
+        <v>1961</v>
       </c>
       <c r="H16">
-        <v>78.42</v>
+        <v>64.64</v>
       </c>
       <c r="I16">
-        <v>12.01</v>
+        <v>17.5</v>
       </c>
       <c r="J16">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="K16">
-        <v>6.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
-        <v>732</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="G17">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="H17">
-        <v>77.08</v>
+        <v>46.8</v>
       </c>
       <c r="I17">
-        <v>17.73</v>
+        <v>12.7</v>
       </c>
       <c r="J17">
-        <v>4.3099999999999996</v>
+        <v>3.25</v>
       </c>
       <c r="K17">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="N17">
-        <f>$M$6-F17</f>
-        <v>3</v>
-      </c>
-      <c r="P17" s="3">
-        <f>E17-N17</f>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
-        <v>803</v>
+        <v>426</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
-        <v>1963</v>
+        <v>1943</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>1985</v>
+        <v>1966</v>
       </c>
       <c r="G18">
-        <v>2000</v>
+        <v>1976</v>
       </c>
       <c r="H18">
-        <v>67.06</v>
+        <v>70</v>
       </c>
       <c r="I18">
-        <v>21.59</v>
+        <v>20.61</v>
       </c>
       <c r="J18">
-        <v>3.96</v>
+        <v>4.37</v>
       </c>
       <c r="K18">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
-        <v>839</v>
+        <v>477</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19">
-        <v>1948</v>
+        <v>1928</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>1971</v>
+        <v>1951</v>
       </c>
       <c r="G19">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="H19">
-        <v>79.599999999999994</v>
+        <v>66</v>
       </c>
       <c r="I19">
-        <v>25.41</v>
+        <v>17.29</v>
       </c>
       <c r="J19">
-        <v>6.26</v>
+        <v>7.11</v>
       </c>
       <c r="K19">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="N19">
-        <f>$M$6-F19</f>
-        <v>3</v>
-      </c>
-      <c r="P19" s="3">
-        <f>E19-N19</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
-        <v>848</v>
+        <v>478</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20">
-        <v>1976</v>
+        <v>1947</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <v>1998</v>
+        <v>1970</v>
       </c>
       <c r="G20">
-        <v>2014</v>
+        <v>1982</v>
       </c>
       <c r="H20">
-        <v>74.94</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="I20">
-        <v>19.149999999999999</v>
+        <v>17.16</v>
       </c>
       <c r="J20">
-        <v>6.81</v>
+        <v>3.21</v>
       </c>
       <c r="K20">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
-        <v>858</v>
+        <v>479</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
-        <v>1940</v>
+        <v>1919</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>1963</v>
+        <v>1949</v>
       </c>
       <c r="G21">
-        <v>1975</v>
+        <v>1955</v>
       </c>
       <c r="H21">
-        <v>79.38</v>
+        <v>66</v>
       </c>
       <c r="I21">
-        <v>18.25</v>
+        <v>14.36</v>
       </c>
       <c r="J21">
-        <v>2.06</v>
+        <v>4.89</v>
       </c>
       <c r="K21">
-        <v>7.1</v>
-      </c>
-      <c r="N21">
-        <f>$M$6-F21</f>
-        <v>11</v>
-      </c>
-      <c r="P21" s="3">
-        <f>E21-N21</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
-        <v>870</v>
+        <v>501</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22">
-        <v>1984</v>
+        <v>1932</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>2004</v>
+        <v>1954</v>
       </c>
       <c r="G22">
-        <v>2016</v>
+        <v>1958</v>
       </c>
       <c r="H22">
-        <v>68.69</v>
+        <v>83</v>
       </c>
       <c r="I22">
-        <v>19.39</v>
+        <v>15.2</v>
       </c>
       <c r="J22">
-        <v>2.0499999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="K22">
-        <v>8.44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
-        <v>903</v>
+        <v>507</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23">
-        <v>1963</v>
+        <v>1948</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>1986</v>
+        <v>1971</v>
       </c>
       <c r="G23">
-        <v>2001</v>
+        <v>1984</v>
       </c>
       <c r="H23">
-        <v>61.62</v>
+        <v>73</v>
       </c>
       <c r="I23">
-        <v>17.12</v>
+        <v>22.5</v>
       </c>
       <c r="J23">
-        <v>3.35</v>
+        <v>3.51</v>
       </c>
       <c r="K23">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
-        <v>917</v>
+        <v>512</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="C24">
+        <v>1951</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
         <v>1973</v>
       </c>
-      <c r="D24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>1994</v>
-      </c>
       <c r="G24">
-        <v>2008</v>
+        <v>1986</v>
       </c>
       <c r="H24">
-        <v>63.93</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="I24">
-        <v>23.67</v>
+        <v>28.59</v>
       </c>
       <c r="J24">
-        <v>5.17</v>
+        <v>3.24</v>
       </c>
       <c r="K24">
-        <v>10.41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
-        <v>987</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25">
-        <v>1962</v>
+        <v>1932</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>1984</v>
+        <v>1955</v>
       </c>
       <c r="G25">
-        <v>1998</v>
+        <v>1965</v>
       </c>
       <c r="H25">
-        <v>77.47</v>
+        <v>72</v>
       </c>
       <c r="I25">
-        <v>23.27</v>
+        <v>26.18</v>
       </c>
       <c r="J25">
-        <v>6.29</v>
+        <v>2.96</v>
       </c>
       <c r="K25">
-        <v>6.61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
-        <v>1008</v>
+        <v>559</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26">
-        <v>1942</v>
+        <v>1951</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>1968</v>
+        <v>1975</v>
       </c>
       <c r="G26">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="H26">
-        <v>77.22</v>
+        <v>78.42</v>
       </c>
       <c r="I26">
-        <v>21.39</v>
+        <v>12.01</v>
       </c>
       <c r="J26">
-        <v>5.0599999999999996</v>
+        <v>2.66</v>
       </c>
       <c r="K26">
-        <v>9.4</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ref="N26:N30" si="2">$M$6-F26</f>
-        <v>6</v>
-      </c>
-      <c r="P26" s="3">
-        <f t="shared" ref="P26:P30" si="3">E26-N26</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
-        <v>1112</v>
+        <v>568</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27">
-        <v>1948</v>
+        <v>1921</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>1971</v>
+        <v>1949</v>
       </c>
       <c r="G27">
-        <v>1985</v>
+        <v>1957</v>
       </c>
       <c r="H27">
-        <v>81.2</v>
+        <v>63.11</v>
       </c>
       <c r="I27">
-        <v>22.49</v>
+        <v>11.53</v>
       </c>
       <c r="J27">
-        <v>2.39</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>9.11</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P27" s="3">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
-        <v>1194</v>
+        <v>695</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28">
-        <v>1943</v>
+        <v>1917</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>1967</v>
+        <v>1948</v>
       </c>
       <c r="G28">
-        <v>1978</v>
+        <v>1950</v>
       </c>
       <c r="H28">
-        <v>75.08</v>
+        <v>46.33</v>
       </c>
       <c r="I28">
-        <v>20.3</v>
+        <v>7.17</v>
       </c>
       <c r="J28">
-        <v>6.01</v>
+        <v>2.07</v>
       </c>
       <c r="K28">
-        <v>3.79</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="P28" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
-        <v>1198</v>
+        <v>732</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
@@ -1887,10 +1848,10 @@
         <v>1948</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <v>1971</v>
@@ -1899,516 +1860,476 @@
         <v>1983</v>
       </c>
       <c r="H29">
-        <v>69.64</v>
+        <v>77.08</v>
       </c>
       <c r="I29">
-        <v>17.149999999999999</v>
+        <v>17.73</v>
       </c>
       <c r="J29">
-        <v>3.78</v>
+        <v>4.31</v>
       </c>
       <c r="K29">
-        <v>13.21</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P29" s="3">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
-        <v>1199</v>
+        <v>749</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
       </c>
       <c r="C30">
-        <v>1940</v>
+        <v>1927</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>1963</v>
+        <v>1948</v>
       </c>
       <c r="G30">
-        <v>1974</v>
+        <v>1962</v>
       </c>
       <c r="H30">
-        <v>79.25</v>
+        <v>60.62</v>
       </c>
       <c r="I30">
-        <v>18.29</v>
+        <v>12.8</v>
       </c>
       <c r="J30">
-        <v>3.18</v>
+        <v>3.54</v>
       </c>
       <c r="K30">
-        <v>11.72</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="P30" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
-        <v>1239</v>
+        <v>803</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="G31">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="H31">
-        <v>70.5</v>
+        <v>67.06</v>
       </c>
       <c r="I31">
-        <v>20.49</v>
+        <v>21.59</v>
       </c>
       <c r="J31">
-        <v>2.37</v>
+        <v>3.96</v>
       </c>
       <c r="K31">
-        <v>10.44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
-        <v>1243</v>
+        <v>839</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
       </c>
       <c r="C32">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="G32">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="H32">
-        <v>65.78</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I32">
-        <v>21.5</v>
+        <v>25.41</v>
       </c>
       <c r="J32">
-        <v>3.01</v>
+        <v>6.26</v>
       </c>
       <c r="K32">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
-        <v>1308</v>
+        <v>848</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
       <c r="C33">
-        <v>1954</v>
+        <v>1976</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>1977</v>
+        <v>1998</v>
       </c>
       <c r="G33">
-        <v>1990</v>
+        <v>2014</v>
       </c>
       <c r="H33">
-        <v>78.569999999999993</v>
+        <v>74.94</v>
       </c>
       <c r="I33">
-        <v>14.06</v>
+        <v>19.15</v>
       </c>
       <c r="J33">
-        <v>5.03</v>
+        <v>6.81</v>
       </c>
       <c r="K33">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
-        <v>1310</v>
+        <v>858</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34">
-        <v>1961</v>
+        <v>1940</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34">
-        <v>1987</v>
+        <v>1963</v>
       </c>
       <c r="G34">
-        <v>2000</v>
+        <v>1975</v>
       </c>
       <c r="H34">
-        <v>65.069999999999993</v>
+        <v>79.38</v>
       </c>
       <c r="I34">
-        <v>6.71</v>
+        <v>18.25</v>
       </c>
       <c r="J34">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="K34">
-        <v>13.37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
-        <v>1385</v>
+        <v>870</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35">
-        <v>1936</v>
+        <v>1984</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35">
-        <v>1960</v>
+        <v>2004</v>
       </c>
       <c r="G35">
-        <v>1974</v>
+        <v>2016</v>
       </c>
       <c r="H35">
-        <v>69.36</v>
+        <v>68.69</v>
       </c>
       <c r="I35">
-        <v>14.71</v>
+        <v>19.39</v>
       </c>
       <c r="J35">
-        <v>2.64</v>
+        <v>2.05</v>
       </c>
       <c r="K35">
-        <v>2.7</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ref="N35" si="4">$M$6-F35</f>
-        <v>14</v>
-      </c>
-      <c r="P35" s="3">
-        <f>E35-N35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
-        <v>1421</v>
+        <v>903</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
       <c r="C36">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="G36">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="H36">
-        <v>70.61</v>
+        <v>61.62</v>
       </c>
       <c r="I36">
-        <v>10.119999999999999</v>
+        <v>17.12</v>
       </c>
       <c r="J36">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="K36">
-        <v>10.36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
-        <v>1426</v>
+        <v>917</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
       </c>
       <c r="C37">
-        <v>1967</v>
+        <v>1973</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>1994</v>
       </c>
       <c r="G37">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="H37">
-        <v>56</v>
+        <v>63.93</v>
       </c>
       <c r="I37">
-        <v>16.5</v>
+        <v>23.67</v>
       </c>
       <c r="J37">
-        <v>1.65</v>
+        <v>5.17</v>
       </c>
       <c r="K37">
-        <v>8.5299999999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
-        <v>1431</v>
+        <v>970</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
       </c>
       <c r="C38">
-        <v>1978</v>
+        <v>1931</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E38">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F38">
-        <v>1999</v>
+        <v>1957</v>
       </c>
       <c r="G38">
-        <v>2019</v>
+        <v>1970</v>
       </c>
       <c r="H38">
-        <v>72.48</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="I38">
-        <v>20.11</v>
+        <v>16.5</v>
       </c>
       <c r="J38">
-        <v>2.34</v>
+        <v>3.09</v>
       </c>
       <c r="K38">
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
-        <v>1440</v>
+        <v>987</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
       </c>
       <c r="C39">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E39">
         <v>15</v>
       </c>
       <c r="F39">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="G39">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H39">
-        <v>76.53</v>
+        <v>77.47</v>
       </c>
       <c r="I39">
-        <v>27.59</v>
+        <v>23.27</v>
       </c>
       <c r="J39">
-        <v>2.76</v>
+        <v>6.29</v>
       </c>
       <c r="K39">
-        <v>6.94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
-        <v>1557</v>
+        <v>989</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
       </c>
       <c r="C40">
-        <v>1981</v>
+        <v>1929</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F40">
-        <v>2004</v>
+        <v>1954</v>
       </c>
       <c r="G40">
-        <v>2019</v>
+        <v>1964</v>
       </c>
       <c r="H40">
-        <v>70.06</v>
+        <v>64</v>
       </c>
       <c r="I40">
-        <v>23.28</v>
+        <v>16.72</v>
       </c>
       <c r="J40">
-        <v>5.8</v>
+        <v>1.52</v>
       </c>
       <c r="K40">
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
-        <v>1575</v>
+        <v>1008</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
       </c>
       <c r="C41">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E41">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>1968</v>
       </c>
       <c r="G41">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="H41">
-        <v>76.08</v>
+        <v>77.22</v>
       </c>
       <c r="I41">
-        <v>20.65</v>
+        <v>21.39</v>
       </c>
       <c r="J41">
-        <v>4.17</v>
+        <v>5.06</v>
       </c>
       <c r="K41">
-        <v>3.11</v>
-      </c>
-      <c r="N41">
-        <f t="shared" ref="N41:N43" si="5">$M$6-F41</f>
-        <v>6</v>
-      </c>
-      <c r="P41" s="3">
-        <f t="shared" ref="P41:P43" si="6">E41-N41</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
-        <v>1662</v>
+        <v>1112</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
       </c>
       <c r="C42">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="G42">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="H42">
-        <v>81.44</v>
+        <v>81.2</v>
       </c>
       <c r="I42">
-        <v>20.95</v>
+        <v>22.49</v>
       </c>
       <c r="J42">
-        <v>1.84</v>
+        <v>2.39</v>
       </c>
       <c r="K42">
-        <v>12.47</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.109999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
-        <v>1815</v>
+        <v>1194</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
@@ -2417,232 +2338,208 @@
         <v>1943</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E43">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="G43">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="H43">
-        <v>73.64</v>
+        <v>75.08</v>
       </c>
       <c r="I43">
-        <v>18.14</v>
+        <v>20.3</v>
       </c>
       <c r="J43">
-        <v>4.53</v>
+        <v>6.01</v>
       </c>
       <c r="K43">
-        <v>3.12</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
-        <v>1845</v>
+        <v>1198</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
       </c>
       <c r="C44">
-        <v>1968</v>
+        <v>1948</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E44">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>1991</v>
+        <v>1971</v>
       </c>
       <c r="G44">
-        <v>2007</v>
+        <v>1983</v>
       </c>
       <c r="H44">
-        <v>83.24</v>
+        <v>69.64</v>
       </c>
       <c r="I44">
-        <v>18.72</v>
+        <v>17.15</v>
       </c>
       <c r="J44">
-        <v>7.68</v>
+        <v>3.78</v>
       </c>
       <c r="K44">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
-        <v>1891</v>
+        <v>1199</v>
       </c>
       <c r="B45" t="s">
         <v>54</v>
       </c>
       <c r="C45">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>1973</v>
+        <v>1963</v>
       </c>
       <c r="G45">
-        <v>1986</v>
+        <v>1974</v>
       </c>
       <c r="H45">
-        <v>81</v>
+        <v>79.25</v>
       </c>
       <c r="I45">
-        <v>27.81</v>
+        <v>18.29</v>
       </c>
       <c r="J45">
-        <v>2.85</v>
+        <v>3.18</v>
       </c>
       <c r="K45">
-        <v>5.82</v>
-      </c>
-      <c r="N45">
-        <f t="shared" ref="N45:N46" si="7">$M$6-F45</f>
-        <v>1</v>
-      </c>
-      <c r="P45" s="3">
-        <f t="shared" ref="P45:P46" si="8">E45-N45</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
-        <v>1906</v>
+        <v>1239</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
       </c>
       <c r="C46">
-        <v>1950</v>
+        <v>1965</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F46">
-        <v>1972</v>
+        <v>1990</v>
       </c>
       <c r="G46">
-        <v>1982</v>
+        <v>2003</v>
       </c>
       <c r="H46">
-        <v>83.18</v>
+        <v>70.5</v>
       </c>
       <c r="I46">
-        <v>22.62</v>
+        <v>20.49</v>
       </c>
       <c r="J46">
-        <v>4.47</v>
+        <v>2.37</v>
       </c>
       <c r="K46">
-        <v>11.74</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="P46" s="3">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
-        <v>1979</v>
+        <v>1243</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
       </c>
       <c r="C47">
-        <v>1972</v>
+        <v>1954</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F47">
-        <v>1995</v>
+        <v>1976</v>
       </c>
       <c r="G47">
-        <v>2013</v>
+        <v>1984</v>
       </c>
       <c r="H47">
-        <v>57</v>
+        <v>65.78</v>
       </c>
       <c r="I47">
-        <v>15.93</v>
+        <v>21.5</v>
       </c>
       <c r="J47">
-        <v>4.07</v>
+        <v>3.01</v>
       </c>
       <c r="K47">
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
-        <v>2035</v>
+        <v>1308</v>
       </c>
       <c r="B48" t="s">
         <v>57</v>
       </c>
       <c r="C48">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F48">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="G48">
-        <v>2002</v>
+        <v>1990</v>
       </c>
       <c r="H48">
-        <v>68.78</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="I48">
-        <v>21.01</v>
+        <v>14.06</v>
       </c>
       <c r="J48">
-        <v>2.41</v>
+        <v>5.03</v>
       </c>
       <c r="K48">
-        <v>10.84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
-        <v>2203</v>
+        <v>1310</v>
       </c>
       <c r="B49" t="s">
         <v>58</v>
@@ -2651,2327 +2548,3531 @@
         <v>1961</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="G49">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="H49">
-        <v>75.31</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="I49">
-        <v>19.010000000000002</v>
+        <v>6.71</v>
       </c>
       <c r="J49">
-        <v>9.18</v>
+        <v>1.74</v>
       </c>
       <c r="K49">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
-        <v>2262</v>
+        <v>1385</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
       </c>
       <c r="C50">
-        <v>1955</v>
+        <v>1936</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E50">
         <v>14</v>
       </c>
       <c r="F50">
-        <v>1978</v>
+        <v>1960</v>
       </c>
       <c r="G50">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="H50">
-        <v>79.069999999999993</v>
+        <v>69.36</v>
       </c>
       <c r="I50">
-        <v>15.62</v>
+        <v>14.71</v>
       </c>
       <c r="J50">
-        <v>3.16</v>
+        <v>2.64</v>
       </c>
       <c r="K50">
-        <v>9.74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
-        <v>2330</v>
+        <v>1401</v>
       </c>
       <c r="B51" t="s">
         <v>60</v>
       </c>
       <c r="C51">
-        <v>1953</v>
+        <v>1925</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51">
-        <v>1975</v>
+        <v>1950</v>
       </c>
       <c r="G51">
-        <v>1986</v>
+        <v>1960</v>
       </c>
       <c r="H51">
-        <v>69</v>
+        <v>67.09</v>
       </c>
       <c r="I51">
-        <v>16.32</v>
+        <v>8.02</v>
       </c>
       <c r="J51">
-        <v>2.37</v>
+        <v>5.71</v>
       </c>
       <c r="K51">
-        <v>5.77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
-        <v>2373</v>
+        <v>1421</v>
       </c>
       <c r="B52" t="s">
         <v>61</v>
       </c>
       <c r="C52">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F52">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="G52">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="H52">
-        <v>77.17</v>
+        <v>70.61</v>
       </c>
       <c r="I52">
-        <v>17.72</v>
+        <v>10.12</v>
       </c>
       <c r="J52">
-        <v>3.07</v>
+        <v>1.04</v>
       </c>
       <c r="K52">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
-        <v>2419</v>
+        <v>1426</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
       </c>
       <c r="C53">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E53">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F53">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G53">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="H53">
-        <v>80.319999999999993</v>
+        <v>56</v>
       </c>
       <c r="I53">
-        <v>14.81</v>
+        <v>16.5</v>
       </c>
       <c r="J53">
-        <v>10.68</v>
+        <v>1.65</v>
       </c>
       <c r="K53">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
-        <v>2546</v>
+        <v>1431</v>
       </c>
       <c r="B54" t="s">
         <v>63</v>
       </c>
       <c r="C54">
-        <v>1940</v>
+        <v>1978</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F54">
-        <v>1964</v>
+        <v>1999</v>
       </c>
       <c r="G54">
-        <v>1974</v>
+        <v>2019</v>
       </c>
       <c r="H54">
-        <v>81.45</v>
+        <v>72.48</v>
       </c>
       <c r="I54">
-        <v>19.18</v>
+        <v>20.11</v>
       </c>
       <c r="J54">
-        <v>3.75</v>
+        <v>2.34</v>
       </c>
       <c r="K54">
-        <v>16.54</v>
-      </c>
-      <c r="N54">
-        <f t="shared" ref="N54:N55" si="9">$M$6-F54</f>
-        <v>10</v>
-      </c>
-      <c r="P54" s="3">
-        <f t="shared" ref="P54:P55" si="10">E54-N54</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
-        <v>2559</v>
+        <v>1434</v>
       </c>
       <c r="B55" t="s">
         <v>64</v>
       </c>
       <c r="C55">
-        <v>1938</v>
+        <v>1928</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55">
-        <v>1961</v>
+        <v>1950</v>
       </c>
       <c r="G55">
-        <v>1974</v>
+        <v>1964</v>
       </c>
       <c r="H55">
-        <v>66.569999999999993</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I55">
-        <v>26.74</v>
+        <v>17.73</v>
       </c>
       <c r="J55">
-        <v>6.69</v>
+        <v>3.03</v>
       </c>
       <c r="K55">
-        <v>5.64</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="P55" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
-        <v>2676</v>
+        <v>1440</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
       </c>
       <c r="C56">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F56">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="G56">
         <v>1999</v>
       </c>
       <c r="H56">
-        <v>72.709999999999994</v>
+        <v>76.53</v>
       </c>
       <c r="I56">
-        <v>15.97</v>
+        <v>27.59</v>
       </c>
       <c r="J56">
-        <v>4.5</v>
+        <v>2.76</v>
       </c>
       <c r="K56">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
-        <v>2750</v>
+        <v>1557</v>
       </c>
       <c r="B57" t="s">
         <v>66</v>
       </c>
       <c r="C57">
-        <v>1940</v>
+        <v>1981</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E57">
         <v>16</v>
       </c>
       <c r="F57">
-        <v>1963</v>
+        <v>2004</v>
       </c>
       <c r="G57">
-        <v>1978</v>
+        <v>2019</v>
       </c>
       <c r="H57">
-        <v>79.38</v>
+        <v>70.06</v>
       </c>
       <c r="I57">
-        <v>20.75</v>
+        <v>23.28</v>
       </c>
       <c r="J57">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="K57">
-        <v>6.29</v>
-      </c>
-      <c r="N57">
-        <f t="shared" ref="N57" si="11">$M$6-F57</f>
-        <v>11</v>
-      </c>
-      <c r="P57" s="3">
-        <f>E57-N57</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
-        <v>2795</v>
+        <v>1575</v>
       </c>
       <c r="B58" t="s">
         <v>67</v>
       </c>
       <c r="C58">
-        <v>1962</v>
+        <v>1944</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E58">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F58">
-        <v>1985</v>
+        <v>1968</v>
       </c>
       <c r="G58">
-        <v>2003</v>
+        <v>1980</v>
       </c>
       <c r="H58">
-        <v>79.16</v>
+        <v>76.08</v>
       </c>
       <c r="I58">
-        <v>13.06</v>
+        <v>20.65</v>
       </c>
       <c r="J58">
-        <v>10.44</v>
+        <v>4.17</v>
       </c>
       <c r="K58">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
-        <v>2932</v>
+        <v>1599</v>
       </c>
       <c r="B59" t="s">
         <v>68</v>
       </c>
       <c r="C59">
+        <v>1928</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
         <v>1950</v>
       </c>
-      <c r="D59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59">
-        <v>16</v>
-      </c>
-      <c r="F59">
-        <v>1972</v>
-      </c>
       <c r="G59">
-        <v>1987</v>
+        <v>1959</v>
       </c>
       <c r="H59">
-        <v>77.69</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I59">
-        <v>23.98</v>
+        <v>16.53</v>
       </c>
       <c r="J59">
-        <v>4.1399999999999997</v>
+        <v>3.07</v>
       </c>
       <c r="K59">
-        <v>8.34</v>
-      </c>
-      <c r="N59">
-        <f t="shared" ref="N59:N60" si="12">$M$6-F59</f>
-        <v>2</v>
-      </c>
-      <c r="P59" s="3">
-        <f t="shared" ref="P59:P60" si="13">E59-N59</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
-        <v>2974</v>
+        <v>1644</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
       </c>
       <c r="C60">
-        <v>1947</v>
+        <v>1934</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F60">
-        <v>1970</v>
+        <v>1959</v>
       </c>
       <c r="G60">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="H60">
-        <v>78</v>
+        <v>60.43</v>
       </c>
       <c r="I60">
-        <v>24.59</v>
+        <v>25.28</v>
       </c>
       <c r="J60">
-        <v>3.62</v>
+        <v>3.94</v>
       </c>
       <c r="K60">
-        <v>11.17</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="P60" s="3">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
-        <v>2977</v>
+        <v>1662</v>
       </c>
       <c r="B61" t="s">
         <v>70</v>
       </c>
       <c r="C61">
-        <v>1963</v>
+        <v>1945</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>1986</v>
+        <v>1969</v>
       </c>
       <c r="G61">
-        <v>2004</v>
+        <v>1984</v>
       </c>
       <c r="H61">
-        <v>77.680000000000007</v>
+        <v>81.44</v>
       </c>
       <c r="I61">
-        <v>24.69</v>
+        <v>20.95</v>
       </c>
       <c r="J61">
-        <v>3.58</v>
+        <v>1.84</v>
       </c>
       <c r="K61">
-        <v>10.09</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
-        <v>3092</v>
+        <v>1766</v>
       </c>
       <c r="B62" t="s">
         <v>71</v>
       </c>
       <c r="C62">
-        <v>1976</v>
+        <v>1931</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F62">
-        <v>1996</v>
+        <v>1955</v>
       </c>
       <c r="G62">
-        <v>2016</v>
+        <v>1964</v>
       </c>
       <c r="H62">
-        <v>71.86</v>
+        <v>69.22</v>
       </c>
       <c r="I62">
-        <v>17.7</v>
+        <v>13.36</v>
       </c>
       <c r="J62">
-        <v>3.7</v>
+        <v>1.84</v>
       </c>
       <c r="K62">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
-        <v>3107</v>
+        <v>1815</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
       </c>
       <c r="C63">
-        <v>1957</v>
+        <v>1943</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63">
-        <v>1981</v>
+        <v>1966</v>
       </c>
       <c r="G63">
-        <v>1993</v>
+        <v>1979</v>
       </c>
       <c r="H63">
-        <v>74.69</v>
+        <v>73.64</v>
       </c>
       <c r="I63">
-        <v>17.87</v>
+        <v>18.14</v>
       </c>
       <c r="J63">
-        <v>1.76</v>
+        <v>4.53</v>
       </c>
       <c r="K63">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
-        <v>3149</v>
+        <v>1845</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
       </c>
       <c r="C64">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E64">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F64">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="G64">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="H64">
-        <v>67.3</v>
+        <v>83.23999999999999</v>
       </c>
       <c r="I64">
-        <v>24.2</v>
+        <v>18.72</v>
       </c>
       <c r="J64">
-        <v>4.76</v>
+        <v>7.68</v>
       </c>
       <c r="K64">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
-        <v>3209</v>
+        <v>1891</v>
       </c>
       <c r="B65" t="s">
         <v>74</v>
       </c>
       <c r="C65">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E65">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="G65">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H65">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I65">
-        <v>23.76</v>
+        <v>27.81</v>
       </c>
       <c r="J65">
-        <v>6.28</v>
+        <v>2.85</v>
       </c>
       <c r="K65">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
-        <v>3280</v>
+        <v>1906</v>
       </c>
       <c r="B66" t="s">
         <v>75</v>
       </c>
       <c r="C66">
-        <v>1937</v>
+        <v>1950</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F66">
-        <v>1961</v>
+        <v>1972</v>
       </c>
       <c r="G66">
-        <v>1975</v>
+        <v>1982</v>
       </c>
       <c r="H66">
-        <v>71.8</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="I66">
-        <v>16.47</v>
+        <v>22.62</v>
       </c>
       <c r="J66">
-        <v>6.61</v>
+        <v>4.47</v>
       </c>
       <c r="K66">
-        <v>4.72</v>
-      </c>
-      <c r="N66">
-        <f t="shared" ref="N66:N68" si="14">$M$6-F66</f>
-        <v>13</v>
-      </c>
-      <c r="P66" s="3">
-        <f t="shared" ref="P66:P68" si="15">E66-N66</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
-        <v>3350</v>
+        <v>1909</v>
       </c>
       <c r="B67" t="s">
         <v>76</v>
       </c>
       <c r="C67">
-        <v>1944</v>
+        <v>1924</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E67">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F67">
-        <v>1967</v>
+        <v>1949</v>
       </c>
       <c r="G67">
-        <v>1979</v>
+        <v>1956</v>
       </c>
       <c r="H67">
-        <v>68.459999999999994</v>
+        <v>62.71</v>
       </c>
       <c r="I67">
-        <v>20.11</v>
+        <v>22.44</v>
       </c>
       <c r="J67">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="K67">
-        <v>4.38</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="P67" s="3">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
-        <v>3355</v>
+        <v>1925</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
       </c>
       <c r="C68">
-        <v>1944</v>
+        <v>1928</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E68">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F68">
-        <v>1968</v>
+        <v>1954</v>
       </c>
       <c r="G68">
+        <v>1960</v>
+      </c>
+      <c r="H68">
+        <v>76.14</v>
+      </c>
+      <c r="I68">
+        <v>24.36</v>
+      </c>
+      <c r="J68">
+        <v>2.09</v>
+      </c>
+      <c r="K68">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
         <v>1979</v>
-      </c>
-      <c r="H68">
-        <v>80</v>
-      </c>
-      <c r="I68">
-        <v>15.83</v>
-      </c>
-      <c r="J68">
-        <v>4.83</v>
-      </c>
-      <c r="K68">
-        <v>2.64</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="P68" s="3">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>3403</v>
       </c>
       <c r="B69" t="s">
         <v>78</v>
       </c>
       <c r="C69">
-        <v>1959</v>
+        <v>1972</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E69">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F69">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="G69">
-        <v>1996</v>
+        <v>2013</v>
       </c>
       <c r="H69">
-        <v>69.69</v>
+        <v>57</v>
       </c>
       <c r="I69">
-        <v>19.38</v>
+        <v>15.93</v>
       </c>
       <c r="J69">
-        <v>10.92</v>
+        <v>4.07</v>
       </c>
       <c r="K69">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
-        <v>3575</v>
+        <v>2025</v>
       </c>
       <c r="B70" t="s">
         <v>79</v>
       </c>
       <c r="C70">
-        <v>1956</v>
+        <v>1938</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>1979</v>
+        <v>1964</v>
       </c>
       <c r="G70">
-        <v>1993</v>
+        <v>1973</v>
       </c>
       <c r="H70">
-        <v>78.8</v>
+        <v>63.1</v>
       </c>
       <c r="I70">
-        <v>11.97</v>
+        <v>16.58</v>
       </c>
       <c r="J70">
-        <v>7.25</v>
+        <v>2.63</v>
       </c>
       <c r="K70">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
-        <v>3599</v>
+        <v>2030</v>
       </c>
       <c r="B71" t="s">
         <v>80</v>
       </c>
       <c r="C71">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F71">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="G71">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="H71">
-        <v>71</v>
+        <v>80.92</v>
       </c>
       <c r="I71">
-        <v>16.920000000000002</v>
+        <v>12.76</v>
       </c>
       <c r="J71">
-        <v>1.67</v>
+        <v>8.57</v>
       </c>
       <c r="K71">
-        <v>13.69</v>
-      </c>
-      <c r="N71">
-        <f t="shared" ref="N71" si="16">$M$6-F71</f>
-        <v>6</v>
-      </c>
-      <c r="P71" s="3">
-        <f>E71-N71</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
-        <v>3632</v>
+        <v>2035</v>
       </c>
       <c r="B72" t="s">
         <v>81</v>
       </c>
       <c r="C72">
-        <v>1956</v>
+        <v>1962</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F72">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="G72">
-        <v>1990</v>
+        <v>2002</v>
       </c>
       <c r="H72">
-        <v>72.75</v>
+        <v>68.78</v>
       </c>
       <c r="I72">
-        <v>8.3000000000000007</v>
+        <v>21.01</v>
       </c>
       <c r="J72">
-        <v>3.85</v>
+        <v>2.41</v>
       </c>
       <c r="K72">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
-        <v>3643</v>
+        <v>2038</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
       </c>
       <c r="C73">
-        <v>1963</v>
+        <v>1936</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E73">
         <v>15</v>
       </c>
       <c r="F73">
-        <v>1985</v>
+        <v>1959</v>
       </c>
       <c r="G73">
-        <v>2003</v>
+        <v>1973</v>
       </c>
       <c r="H73">
-        <v>71.47</v>
+        <v>74.8</v>
       </c>
       <c r="I73">
-        <v>29.45</v>
+        <v>18.65</v>
       </c>
       <c r="J73">
-        <v>5.14</v>
+        <v>3.97</v>
       </c>
       <c r="K73">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
-        <v>3758</v>
+        <v>2074</v>
       </c>
       <c r="B74" t="s">
         <v>83</v>
       </c>
       <c r="C74">
-        <v>1965</v>
+        <v>1927</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E74">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>1989</v>
+        <v>1949</v>
       </c>
       <c r="G74">
-        <v>2002</v>
+        <v>1958</v>
       </c>
       <c r="H74">
-        <v>69.709999999999994</v>
+        <v>68.2</v>
       </c>
       <c r="I74">
-        <v>20.59</v>
+        <v>12.81</v>
       </c>
       <c r="J74">
-        <v>3.44</v>
+        <v>1.74</v>
       </c>
       <c r="K74">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
-        <v>3785</v>
+        <v>2203</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
       </c>
       <c r="C75">
-        <v>1955</v>
+        <v>1961</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E75">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F75">
-        <v>1975</v>
+        <v>1982</v>
       </c>
       <c r="G75">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H75">
-        <v>73.19</v>
+        <v>75.31</v>
       </c>
       <c r="I75">
-        <v>19.37</v>
+        <v>19.01</v>
       </c>
       <c r="J75">
-        <v>1.3</v>
+        <v>9.18</v>
       </c>
       <c r="K75">
-        <v>11.47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
-        <v>3824</v>
+        <v>2262</v>
       </c>
       <c r="B76" t="s">
         <v>85</v>
       </c>
       <c r="C76">
-        <v>1941</v>
+        <v>1955</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E76">
         <v>14</v>
       </c>
       <c r="F76">
-        <v>1964</v>
+        <v>1978</v>
       </c>
       <c r="G76">
-        <v>1977</v>
+        <v>1991</v>
       </c>
       <c r="H76">
-        <v>74.430000000000007</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="I76">
-        <v>15.71</v>
+        <v>15.62</v>
       </c>
       <c r="J76">
-        <v>2.91</v>
+        <v>3.16</v>
       </c>
       <c r="K76">
-        <v>15.58</v>
-      </c>
-      <c r="N76">
-        <f t="shared" ref="N76:N77" si="17">$M$6-F76</f>
-        <v>10</v>
-      </c>
-      <c r="P76" s="3">
-        <f t="shared" ref="P76:P77" si="18">E76-N76</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
-        <v>3934</v>
+        <v>2270</v>
       </c>
       <c r="B77" t="s">
         <v>86</v>
       </c>
       <c r="C77">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E77">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F77">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="G77">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="H77">
-        <v>74.290000000000006</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="I77">
-        <v>25.53</v>
+        <v>19.15</v>
       </c>
       <c r="J77">
-        <v>9.4499999999999993</v>
+        <v>2.25</v>
       </c>
       <c r="K77">
-        <v>7.42</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="17"/>
-        <v>13</v>
-      </c>
-      <c r="P77" s="3">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
-        <v>3981</v>
+        <v>2330</v>
       </c>
       <c r="B78" t="s">
         <v>87</v>
       </c>
       <c r="C78">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E78">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F78">
+        <v>1975</v>
+      </c>
+      <c r="G78">
         <v>1986</v>
       </c>
-      <c r="G78">
-        <v>2002</v>
-      </c>
       <c r="H78">
-        <v>69.59</v>
+        <v>69</v>
       </c>
       <c r="I78">
-        <v>20.58</v>
+        <v>16.32</v>
       </c>
       <c r="J78">
-        <v>1.79</v>
+        <v>2.37</v>
       </c>
       <c r="K78">
-        <v>9.73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
-        <v>3989</v>
+        <v>2373</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
       </c>
       <c r="C79">
-        <v>1980</v>
+        <v>1961</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E79">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F79">
-        <v>2002</v>
+        <v>1983</v>
       </c>
       <c r="G79">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="H79">
-        <v>73.44</v>
+        <v>77.17</v>
       </c>
       <c r="I79">
-        <v>18.96</v>
+        <v>17.72</v>
       </c>
       <c r="J79">
-        <v>3.66</v>
+        <v>3.07</v>
       </c>
       <c r="K79">
-        <v>9.69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
-        <v>4011</v>
+        <v>2419</v>
       </c>
       <c r="B80" t="s">
         <v>89</v>
       </c>
       <c r="C80">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E80">
         <v>19</v>
       </c>
       <c r="F80">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="G80">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="H80">
-        <v>70.680000000000007</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="I80">
-        <v>18.93</v>
+        <v>14.81</v>
       </c>
       <c r="J80">
-        <v>3.36</v>
+        <v>10.68</v>
       </c>
       <c r="K80">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
-        <v>4023</v>
+        <v>2546</v>
       </c>
       <c r="B81" t="s">
         <v>90</v>
       </c>
       <c r="C81">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E81">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="G81">
-        <v>1984</v>
+        <v>1974</v>
       </c>
       <c r="H81">
-        <v>68.58</v>
+        <v>81.45</v>
       </c>
       <c r="I81">
-        <v>14.95</v>
+        <v>19.18</v>
       </c>
       <c r="J81">
-        <v>4.34</v>
+        <v>3.75</v>
       </c>
       <c r="K81">
-        <v>1.82</v>
-      </c>
-      <c r="N81">
-        <f t="shared" ref="N81:N82" si="19">$M$6-F81</f>
-        <v>1</v>
-      </c>
-      <c r="P81" s="3">
-        <f t="shared" ref="P81:P82" si="20">E81-N81</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
-        <v>4044</v>
+        <v>2559</v>
       </c>
       <c r="B82" t="s">
         <v>91</v>
       </c>
       <c r="C82">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F82">
-        <v>1971</v>
+        <v>1961</v>
       </c>
       <c r="G82">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="H82">
-        <v>70.099999999999994</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="I82">
-        <v>26.67</v>
+        <v>26.74</v>
       </c>
       <c r="J82">
-        <v>5.74</v>
+        <v>6.69</v>
       </c>
       <c r="K82">
-        <v>4.21</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="P82" s="3">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
-        <v>4134</v>
+        <v>2617</v>
       </c>
       <c r="B83" t="s">
         <v>92</v>
       </c>
       <c r="C83">
-        <v>1960</v>
+        <v>1922</v>
       </c>
       <c r="D83" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F83">
-        <v>1984</v>
+        <v>1949</v>
       </c>
       <c r="G83">
-        <v>1992</v>
+        <v>1955</v>
       </c>
       <c r="H83">
-        <v>56</v>
+        <v>62.57</v>
       </c>
       <c r="I83">
-        <v>15.59</v>
+        <v>13.16</v>
       </c>
       <c r="J83">
-        <v>2.4300000000000002</v>
+        <v>3.21</v>
       </c>
       <c r="K83">
-        <v>8.44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
-        <v>4168</v>
+        <v>2676</v>
       </c>
       <c r="B84" t="s">
         <v>93</v>
       </c>
       <c r="C84">
-        <v>1975</v>
+        <v>1963</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F84">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="G84">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="H84">
-        <v>76.44</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="I84">
-        <v>21.43</v>
+        <v>15.97</v>
       </c>
       <c r="J84">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="K84">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
-        <v>4220</v>
+        <v>2679</v>
       </c>
       <c r="B85" t="s">
         <v>94</v>
       </c>
       <c r="C85">
-        <v>1965</v>
+        <v>1921</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E85">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <v>1988</v>
+        <v>1947</v>
       </c>
       <c r="G85">
-        <v>2005</v>
+        <v>1954</v>
       </c>
       <c r="H85">
-        <v>77.17</v>
+        <v>61.12</v>
       </c>
       <c r="I85">
-        <v>18.12</v>
+        <v>16.71</v>
       </c>
       <c r="J85">
-        <v>2.94</v>
+        <v>1.16</v>
       </c>
       <c r="K85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
-        <v>4264</v>
+        <v>2750</v>
       </c>
       <c r="B86" t="s">
         <v>95</v>
       </c>
       <c r="C86">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E86">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F86">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="G86">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="H86">
-        <v>72.86</v>
+        <v>79.38</v>
       </c>
       <c r="I86">
-        <v>25.24</v>
+        <v>20.75</v>
       </c>
       <c r="J86">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="K86">
-        <v>6.83</v>
-      </c>
-      <c r="N86">
-        <f t="shared" ref="N86" si="21">$M$6-F86</f>
-        <v>8</v>
-      </c>
-      <c r="P86" s="3">
-        <f>E86-N86</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
-        <v>4310</v>
+        <v>2795</v>
       </c>
       <c r="B87" t="s">
         <v>96</v>
       </c>
       <c r="C87">
-        <v>1953</v>
+        <v>1962</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E87">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F87">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="G87">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="H87">
-        <v>76.709999999999994</v>
+        <v>79.16</v>
       </c>
       <c r="I87">
-        <v>14.21</v>
+        <v>13.06</v>
       </c>
       <c r="J87">
-        <v>1.34</v>
+        <v>10.44</v>
       </c>
       <c r="K87">
-        <v>8.98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
-        <v>4344</v>
+        <v>2932</v>
       </c>
       <c r="B88" t="s">
         <v>97</v>
       </c>
       <c r="C88">
-        <v>1942</v>
+        <v>1950</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E88">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F88">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="G88">
-        <v>1975</v>
+        <v>1987</v>
       </c>
       <c r="H88">
-        <v>82.62</v>
+        <v>77.69</v>
       </c>
       <c r="I88">
-        <v>20.16</v>
+        <v>23.98</v>
       </c>
       <c r="J88">
-        <v>4.54</v>
+        <v>4.14</v>
       </c>
       <c r="K88">
-        <v>6.91</v>
-      </c>
-      <c r="N88">
-        <f t="shared" ref="N88" si="22">$M$6-F88</f>
-        <v>6</v>
-      </c>
-      <c r="P88" s="3">
-        <f>E88-N88</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
-        <v>4502</v>
+        <v>2963</v>
       </c>
       <c r="B89" t="s">
         <v>98</v>
       </c>
       <c r="C89">
-        <v>1964</v>
+        <v>1932</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E89">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F89">
-        <v>1990</v>
+        <v>1959</v>
       </c>
       <c r="G89">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="H89">
-        <v>51.86</v>
+        <v>75.11</v>
       </c>
       <c r="I89">
-        <v>12.31</v>
+        <v>7.23</v>
       </c>
       <c r="J89">
-        <v>2.23</v>
+        <v>4.17</v>
       </c>
       <c r="K89">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
-        <v>4530</v>
+        <v>2974</v>
       </c>
       <c r="B90" t="s">
         <v>99</v>
       </c>
       <c r="C90">
-        <v>1965</v>
+        <v>1947</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E90">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F90">
-        <v>1988</v>
+        <v>1970</v>
       </c>
       <c r="G90">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="H90">
-        <v>69.290000000000006</v>
+        <v>78</v>
       </c>
       <c r="I90">
-        <v>15.52</v>
+        <v>24.59</v>
       </c>
       <c r="J90">
-        <v>5.1100000000000003</v>
+        <v>3.62</v>
       </c>
       <c r="K90">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
-        <v>4575</v>
+        <v>2977</v>
       </c>
       <c r="B91" t="s">
         <v>100</v>
       </c>
       <c r="C91">
-        <v>1972</v>
+        <v>1963</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E91">
         <v>19</v>
       </c>
       <c r="F91">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="G91">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="H91">
-        <v>66.739999999999995</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="I91">
-        <v>24.42</v>
+        <v>24.69</v>
       </c>
       <c r="J91">
-        <v>2.59</v>
+        <v>3.58</v>
       </c>
       <c r="K91">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
-        <v>4605</v>
+        <v>3092</v>
       </c>
       <c r="B92" t="s">
         <v>101</v>
       </c>
       <c r="C92">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E92">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F92">
-        <v>1980</v>
+        <v>1996</v>
       </c>
       <c r="G92">
-        <v>1991</v>
+        <v>2016</v>
       </c>
       <c r="H92">
-        <v>69.73</v>
+        <v>71.86</v>
       </c>
       <c r="I92">
-        <v>15.18</v>
+        <v>17.7</v>
       </c>
       <c r="J92">
-        <v>3.58</v>
+        <v>3.7</v>
       </c>
       <c r="K92">
-        <v>4.53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
-        <v>4639</v>
+        <v>3107</v>
       </c>
       <c r="B93" t="s">
         <v>102</v>
       </c>
       <c r="C93">
-        <v>1949</v>
+        <v>1957</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E93">
         <v>13</v>
       </c>
       <c r="F93">
-        <v>1970</v>
+        <v>1981</v>
       </c>
       <c r="G93">
-        <v>1983</v>
+        <v>1993</v>
       </c>
       <c r="H93">
-        <v>70.150000000000006</v>
+        <v>74.69</v>
       </c>
       <c r="I93">
-        <v>22.76</v>
+        <v>17.87</v>
       </c>
       <c r="J93">
-        <v>2.0499999999999998</v>
+        <v>1.76</v>
       </c>
       <c r="K93">
-        <v>10.57</v>
-      </c>
-      <c r="N93">
-        <f t="shared" ref="N93" si="23">$M$6-F93</f>
-        <v>4</v>
-      </c>
-      <c r="P93" s="3">
-        <f>E93-N93</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
-        <v>4703</v>
+        <v>3149</v>
       </c>
       <c r="B94" t="s">
         <v>103</v>
       </c>
       <c r="C94">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="D94" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E94">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F94">
         <v>1997</v>
       </c>
       <c r="G94">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="H94">
-        <v>67.61</v>
+        <v>67.3</v>
       </c>
       <c r="I94">
-        <v>13.52</v>
+        <v>24.2</v>
       </c>
       <c r="J94">
-        <v>8.16</v>
+        <v>4.76</v>
       </c>
       <c r="K94">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
-        <v>4816</v>
+        <v>3209</v>
       </c>
       <c r="B95" t="s">
         <v>104</v>
       </c>
       <c r="C95">
-        <v>1976</v>
+        <v>1956</v>
       </c>
       <c r="D95" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E95">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F95">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="G95">
-        <v>2016</v>
+        <v>1992</v>
       </c>
       <c r="H95">
-        <v>73.260000000000005</v>
+        <v>69</v>
       </c>
       <c r="I95">
-        <v>18.89</v>
+        <v>23.76</v>
       </c>
       <c r="J95">
-        <v>3.01</v>
+        <v>6.28</v>
       </c>
       <c r="K95">
-        <v>10.77</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
-        <v>4818</v>
+        <v>3280</v>
       </c>
       <c r="B96" t="s">
         <v>105</v>
       </c>
       <c r="C96">
-        <v>1966</v>
+        <v>1937</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F96">
-        <v>1990</v>
+        <v>1961</v>
       </c>
       <c r="G96">
-        <v>2003</v>
+        <v>1975</v>
       </c>
       <c r="H96">
-        <v>78.08</v>
+        <v>71.8</v>
       </c>
       <c r="I96">
-        <v>20.59</v>
+        <v>16.47</v>
       </c>
       <c r="J96">
-        <v>9.75</v>
+        <v>6.61</v>
       </c>
       <c r="K96">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
-        <v>4832</v>
+        <v>3350</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
       </c>
       <c r="C97">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E97">
         <v>13</v>
       </c>
       <c r="F97">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="G97">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="H97">
-        <v>67.38</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="I97">
-        <v>18.23</v>
+        <v>20.11</v>
       </c>
       <c r="J97">
-        <v>7.26</v>
+        <v>2.77</v>
       </c>
       <c r="K97">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N97">
-        <f t="shared" ref="N97" si="24">$M$6-F97</f>
-        <v>3</v>
-      </c>
-      <c r="P97" s="3">
-        <f>E97-N97</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
-        <v>4901</v>
+        <v>3355</v>
       </c>
       <c r="B98" t="s">
         <v>107</v>
       </c>
       <c r="C98">
+        <v>1944</v>
+      </c>
+      <c r="D98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98">
+        <v>12</v>
+      </c>
+      <c r="F98">
         <v>1968</v>
       </c>
-      <c r="D98" t="s">
-        <v>119</v>
-      </c>
-      <c r="E98">
-        <v>13</v>
-      </c>
-      <c r="F98">
-        <v>1994</v>
-      </c>
       <c r="G98">
-        <v>2006</v>
+        <v>1979</v>
       </c>
       <c r="H98">
-        <v>74.38</v>
+        <v>80</v>
       </c>
       <c r="I98">
-        <v>16.11</v>
+        <v>15.83</v>
       </c>
       <c r="J98">
-        <v>5.08</v>
+        <v>4.83</v>
       </c>
       <c r="K98">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
-        <v>4924</v>
+        <v>3403</v>
       </c>
       <c r="B99" t="s">
         <v>108</v>
       </c>
       <c r="C99">
-        <v>1982</v>
+        <v>1959</v>
       </c>
       <c r="D99" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E99">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F99">
-        <v>2002</v>
+        <v>1980</v>
       </c>
       <c r="G99">
-        <v>2019</v>
+        <v>1996</v>
       </c>
       <c r="H99">
-        <v>69.67</v>
+        <v>69.69</v>
       </c>
       <c r="I99">
-        <v>15.37</v>
+        <v>19.38</v>
       </c>
       <c r="J99">
-        <v>5.59</v>
+        <v>10.92</v>
       </c>
       <c r="K99">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
-        <v>4941</v>
+        <v>3575</v>
       </c>
       <c r="B100" t="s">
         <v>109</v>
       </c>
       <c r="C100">
-        <v>1979</v>
+        <v>1956</v>
       </c>
       <c r="D100" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E100">
         <v>15</v>
       </c>
       <c r="F100">
-        <v>1998</v>
+        <v>1979</v>
       </c>
       <c r="G100">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="H100">
-        <v>64.53</v>
+        <v>78.8</v>
       </c>
       <c r="I100">
-        <v>19.350000000000001</v>
+        <v>11.97</v>
       </c>
       <c r="J100">
-        <v>4.6500000000000004</v>
+        <v>7.25</v>
       </c>
       <c r="K100">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
-        <v>5066</v>
+        <v>3583</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
       </c>
       <c r="C101">
-        <v>1976</v>
+        <v>1933</v>
       </c>
       <c r="D101" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E101">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F101">
-        <v>1999</v>
+        <v>1956</v>
       </c>
       <c r="G101">
-        <v>2020</v>
+        <v>1958</v>
       </c>
       <c r="H101">
-        <v>76.86</v>
+        <v>67.33</v>
       </c>
       <c r="I101">
-        <v>19.62</v>
+        <v>16.43</v>
       </c>
       <c r="J101">
-        <v>3.53</v>
+        <v>5.3</v>
       </c>
       <c r="K101">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
-        <v>5080</v>
+        <v>3599</v>
       </c>
       <c r="B102" t="s">
         <v>111</v>
       </c>
       <c r="C102">
+        <v>1944</v>
+      </c>
+      <c r="D102" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
+      <c r="F102">
         <v>1968</v>
       </c>
-      <c r="D102" t="s">
-        <v>119</v>
-      </c>
-      <c r="E102">
-        <v>16</v>
-      </c>
-      <c r="F102">
-        <v>1990</v>
-      </c>
       <c r="G102">
-        <v>2005</v>
+        <v>1977</v>
       </c>
       <c r="H102">
-        <v>70.88</v>
+        <v>71</v>
       </c>
       <c r="I102">
-        <v>11.36</v>
+        <v>16.92</v>
       </c>
       <c r="J102">
-        <v>3.01</v>
+        <v>1.67</v>
       </c>
       <c r="K102">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
-        <v>5102</v>
+        <v>3632</v>
       </c>
       <c r="B103" t="s">
         <v>112</v>
       </c>
       <c r="C103">
-        <v>1939</v>
+        <v>1956</v>
       </c>
       <c r="D103" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F103">
-        <v>1962</v>
+        <v>1979</v>
       </c>
       <c r="G103">
-        <v>1975</v>
+        <v>1990</v>
       </c>
       <c r="H103">
-        <v>92.14</v>
+        <v>72.75</v>
       </c>
       <c r="I103">
-        <v>26.36</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J103">
-        <v>3.29</v>
+        <v>3.85</v>
       </c>
       <c r="K103">
-        <v>15.67</v>
-      </c>
-      <c r="N103">
-        <f t="shared" ref="N103:N104" si="25">$M$6-F103</f>
-        <v>12</v>
-      </c>
-      <c r="P103" s="3">
-        <f t="shared" ref="P103:P104" si="26">E103-N103</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
-        <v>5105</v>
+        <v>3643</v>
       </c>
       <c r="B104" t="s">
         <v>113</v>
       </c>
       <c r="C104">
-        <v>1945</v>
+        <v>1963</v>
       </c>
       <c r="D104" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E104">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F104">
-        <v>1968</v>
+        <v>1985</v>
       </c>
       <c r="G104">
-        <v>1980</v>
+        <v>2003</v>
       </c>
       <c r="H104">
-        <v>63.46</v>
+        <v>71.47</v>
       </c>
       <c r="I104">
-        <v>17.09</v>
+        <v>29.45</v>
       </c>
       <c r="J104">
-        <v>5.56</v>
+        <v>5.14</v>
       </c>
       <c r="K104">
-        <v>5.18</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="25"/>
-        <v>6</v>
-      </c>
-      <c r="P104" s="3">
-        <f t="shared" si="26"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
-        <v>5118</v>
+        <v>3758</v>
       </c>
       <c r="B105" t="s">
         <v>114</v>
       </c>
       <c r="C105">
-        <v>1954</v>
+        <v>1965</v>
       </c>
       <c r="D105" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E105">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F105">
-        <v>1978</v>
+        <v>1989</v>
       </c>
       <c r="G105">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="H105">
-        <v>73.599999999999994</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="I105">
-        <v>19.989999999999998</v>
+        <v>20.59</v>
       </c>
       <c r="J105">
-        <v>3.93</v>
+        <v>3.44</v>
       </c>
       <c r="K105">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
-        <v>5162</v>
+        <v>3785</v>
       </c>
       <c r="B106" t="s">
         <v>115</v>
       </c>
       <c r="C106">
-        <v>1946</v>
+        <v>1955</v>
       </c>
       <c r="D106" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E106">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F106">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="G106">
-        <v>1981</v>
+        <v>1995</v>
       </c>
       <c r="H106">
-        <v>75.69</v>
+        <v>73.19</v>
       </c>
       <c r="I106">
-        <v>10.64</v>
+        <v>19.37</v>
       </c>
       <c r="J106">
-        <v>3.85</v>
+        <v>1.3</v>
       </c>
       <c r="K106">
-        <v>13.85</v>
-      </c>
-      <c r="N106">
-        <f t="shared" ref="N106:N107" si="27">$M$6-F106</f>
-        <v>5</v>
-      </c>
-      <c r="P106" s="3">
-        <f t="shared" ref="P106:P107" si="28">E106-N106</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>11.47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
-        <v>5219</v>
+        <v>3824</v>
       </c>
       <c r="B107" t="s">
         <v>116</v>
       </c>
       <c r="C107">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D107" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E107">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F107">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G107">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="H107">
-        <v>65</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="I107">
-        <v>17.59</v>
+        <v>15.71</v>
       </c>
       <c r="J107">
-        <v>1.82</v>
+        <v>2.91</v>
       </c>
       <c r="K107">
-        <v>12.09</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="27"/>
-        <v>9</v>
-      </c>
-      <c r="P107" s="3">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
-        <v>5246</v>
+        <v>3840</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
       </c>
       <c r="C108">
-        <v>1980</v>
+        <v>1929</v>
       </c>
       <c r="D108" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E108">
         <v>8</v>
       </c>
       <c r="F108">
-        <v>2003</v>
+        <v>1952</v>
       </c>
       <c r="G108">
-        <v>2011</v>
+        <v>1959</v>
       </c>
       <c r="H108">
-        <v>60.75</v>
+        <v>64.5</v>
       </c>
       <c r="I108">
-        <v>18.559999999999999</v>
+        <v>18.26</v>
       </c>
       <c r="J108">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="K108">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
-        <v>5276</v>
+        <v>3934</v>
       </c>
       <c r="B109" t="s">
         <v>118</v>
       </c>
       <c r="C109">
+        <v>1938</v>
+      </c>
+      <c r="D109" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>1961</v>
+      </c>
+      <c r="G109">
+        <v>1974</v>
+      </c>
+      <c r="H109">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="I109">
+        <v>25.53</v>
+      </c>
+      <c r="J109">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K109">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>3981</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110">
+        <v>1962</v>
+      </c>
+      <c r="D110" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110">
+        <v>17</v>
+      </c>
+      <c r="F110">
+        <v>1986</v>
+      </c>
+      <c r="G110">
+        <v>2002</v>
+      </c>
+      <c r="H110">
+        <v>69.59</v>
+      </c>
+      <c r="I110">
+        <v>20.58</v>
+      </c>
+      <c r="J110">
+        <v>1.79</v>
+      </c>
+      <c r="K110">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>3989</v>
+      </c>
+      <c r="B111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111">
+        <v>1980</v>
+      </c>
+      <c r="D111" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>2002</v>
+      </c>
+      <c r="G111">
+        <v>2019</v>
+      </c>
+      <c r="H111">
+        <v>73.44</v>
+      </c>
+      <c r="I111">
+        <v>18.96</v>
+      </c>
+      <c r="J111">
+        <v>3.66</v>
+      </c>
+      <c r="K111">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>3990</v>
+      </c>
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112">
+        <v>1928</v>
+      </c>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>1951</v>
+      </c>
+      <c r="G112">
+        <v>1962</v>
+      </c>
+      <c r="H112">
+        <v>71.3</v>
+      </c>
+      <c r="I112">
+        <v>22.79</v>
+      </c>
+      <c r="J112">
+        <v>2.33</v>
+      </c>
+      <c r="K112">
+        <v>8.640000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>4011</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113">
+        <v>1977</v>
+      </c>
+      <c r="D113" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113">
+        <v>19</v>
+      </c>
+      <c r="F113">
+        <v>1999</v>
+      </c>
+      <c r="G113">
+        <v>2017</v>
+      </c>
+      <c r="H113">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="I113">
+        <v>18.93</v>
+      </c>
+      <c r="J113">
+        <v>3.36</v>
+      </c>
+      <c r="K113">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>4023</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114">
+        <v>1950</v>
+      </c>
+      <c r="D114" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114">
+        <v>12</v>
+      </c>
+      <c r="F114">
+        <v>1973</v>
+      </c>
+      <c r="G114">
+        <v>1984</v>
+      </c>
+      <c r="H114">
+        <v>68.58</v>
+      </c>
+      <c r="I114">
+        <v>14.95</v>
+      </c>
+      <c r="J114">
+        <v>4.34</v>
+      </c>
+      <c r="K114">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>4044</v>
+      </c>
+      <c r="B115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115">
+        <v>1947</v>
+      </c>
+      <c r="D115" t="s">
+        <v>159</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>1971</v>
+      </c>
+      <c r="G115">
+        <v>1980</v>
+      </c>
+      <c r="H115">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="I115">
+        <v>26.67</v>
+      </c>
+      <c r="J115">
+        <v>5.74</v>
+      </c>
+      <c r="K115">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>4134</v>
+      </c>
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116">
+        <v>1960</v>
+      </c>
+      <c r="D116" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116">
+        <v>9</v>
+      </c>
+      <c r="F116">
+        <v>1984</v>
+      </c>
+      <c r="G116">
+        <v>1992</v>
+      </c>
+      <c r="H116">
+        <v>56</v>
+      </c>
+      <c r="I116">
+        <v>15.59</v>
+      </c>
+      <c r="J116">
+        <v>2.43</v>
+      </c>
+      <c r="K116">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>4168</v>
+      </c>
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117">
+        <v>1975</v>
+      </c>
+      <c r="D117" t="s">
+        <v>159</v>
+      </c>
+      <c r="E117">
+        <v>18</v>
+      </c>
+      <c r="F117">
+        <v>1997</v>
+      </c>
+      <c r="G117">
+        <v>2014</v>
+      </c>
+      <c r="H117">
+        <v>76.44</v>
+      </c>
+      <c r="I117">
+        <v>21.43</v>
+      </c>
+      <c r="J117">
+        <v>3.9</v>
+      </c>
+      <c r="K117">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>4220</v>
+      </c>
+      <c r="B118" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118">
+        <v>1965</v>
+      </c>
+      <c r="D118" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118">
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>1988</v>
+      </c>
+      <c r="G118">
+        <v>2005</v>
+      </c>
+      <c r="H118">
+        <v>77.17</v>
+      </c>
+      <c r="I118">
+        <v>18.12</v>
+      </c>
+      <c r="J118">
+        <v>2.94</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>4259</v>
+      </c>
+      <c r="B119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119">
+        <v>1932</v>
+      </c>
+      <c r="D119" t="s">
+        <v>159</v>
+      </c>
+      <c r="E119">
+        <v>13</v>
+      </c>
+      <c r="F119">
+        <v>1957</v>
+      </c>
+      <c r="G119">
+        <v>1970</v>
+      </c>
+      <c r="H119">
+        <v>71.38</v>
+      </c>
+      <c r="I119">
+        <v>17.52</v>
+      </c>
+      <c r="J119">
+        <v>5.18</v>
+      </c>
+      <c r="K119">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>4264</v>
+      </c>
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120">
+        <v>1944</v>
+      </c>
+      <c r="D120" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120">
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>1966</v>
+      </c>
+      <c r="G120">
+        <v>1980</v>
+      </c>
+      <c r="H120">
+        <v>72.86</v>
+      </c>
+      <c r="I120">
+        <v>25.24</v>
+      </c>
+      <c r="J120">
+        <v>4.78</v>
+      </c>
+      <c r="K120">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>4310</v>
+      </c>
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121">
+        <v>1953</v>
+      </c>
+      <c r="D121" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121">
+        <v>21</v>
+      </c>
+      <c r="F121">
+        <v>1977</v>
+      </c>
+      <c r="G121">
+        <v>1997</v>
+      </c>
+      <c r="H121">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="I121">
+        <v>14.21</v>
+      </c>
+      <c r="J121">
+        <v>1.34</v>
+      </c>
+      <c r="K121">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>4344</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122">
+        <v>1942</v>
+      </c>
+      <c r="D122" t="s">
+        <v>159</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+      <c r="F122">
+        <v>1968</v>
+      </c>
+      <c r="G122">
+        <v>1975</v>
+      </c>
+      <c r="H122">
+        <v>82.62</v>
+      </c>
+      <c r="I122">
+        <v>20.16</v>
+      </c>
+      <c r="J122">
+        <v>4.54</v>
+      </c>
+      <c r="K122">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>4476</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123">
+        <v>1933</v>
+      </c>
+      <c r="D123" t="s">
+        <v>159</v>
+      </c>
+      <c r="E123">
+        <v>12</v>
+      </c>
+      <c r="F123">
+        <v>1958</v>
+      </c>
+      <c r="G123">
+        <v>1969</v>
+      </c>
+      <c r="H123">
+        <v>72.58</v>
+      </c>
+      <c r="I123">
+        <v>17.4</v>
+      </c>
+      <c r="J123">
+        <v>2.51</v>
+      </c>
+      <c r="K123">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>4502</v>
+      </c>
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124">
+        <v>1964</v>
+      </c>
+      <c r="D124" t="s">
+        <v>159</v>
+      </c>
+      <c r="E124">
+        <v>7</v>
+      </c>
+      <c r="F124">
+        <v>1990</v>
+      </c>
+      <c r="G124">
+        <v>1997</v>
+      </c>
+      <c r="H124">
+        <v>51.86</v>
+      </c>
+      <c r="I124">
+        <v>12.31</v>
+      </c>
+      <c r="J124">
+        <v>2.23</v>
+      </c>
+      <c r="K124">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>4530</v>
+      </c>
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125">
+        <v>1965</v>
+      </c>
+      <c r="D125" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125">
+        <v>17</v>
+      </c>
+      <c r="F125">
+        <v>1988</v>
+      </c>
+      <c r="G125">
+        <v>2004</v>
+      </c>
+      <c r="H125">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="I125">
+        <v>15.52</v>
+      </c>
+      <c r="J125">
+        <v>5.11</v>
+      </c>
+      <c r="K125">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>4575</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126">
+        <v>1972</v>
+      </c>
+      <c r="D126" t="s">
+        <v>159</v>
+      </c>
+      <c r="E126">
+        <v>19</v>
+      </c>
+      <c r="F126">
+        <v>1993</v>
+      </c>
+      <c r="G126">
+        <v>2011</v>
+      </c>
+      <c r="H126">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="I126">
+        <v>24.42</v>
+      </c>
+      <c r="J126">
+        <v>2.59</v>
+      </c>
+      <c r="K126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>4605</v>
+      </c>
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127">
+        <v>1957</v>
+      </c>
+      <c r="D127" t="s">
+        <v>159</v>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127">
+        <v>1980</v>
+      </c>
+      <c r="G127">
+        <v>1991</v>
+      </c>
+      <c r="H127">
+        <v>69.73</v>
+      </c>
+      <c r="I127">
+        <v>15.18</v>
+      </c>
+      <c r="J127">
+        <v>3.58</v>
+      </c>
+      <c r="K127">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>4620</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128">
+        <v>1925</v>
+      </c>
+      <c r="D128" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128">
+        <v>11</v>
+      </c>
+      <c r="F128">
+        <v>1950</v>
+      </c>
+      <c r="G128">
+        <v>1960</v>
+      </c>
+      <c r="H128">
+        <v>73.73</v>
+      </c>
+      <c r="I128">
+        <v>11.63</v>
+      </c>
+      <c r="J128">
+        <v>4.89</v>
+      </c>
+      <c r="K128">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>4639</v>
+      </c>
+      <c r="B129" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129">
+        <v>1949</v>
+      </c>
+      <c r="D129" t="s">
+        <v>159</v>
+      </c>
+      <c r="E129">
+        <v>13</v>
+      </c>
+      <c r="F129">
+        <v>1970</v>
+      </c>
+      <c r="G129">
+        <v>1983</v>
+      </c>
+      <c r="H129">
+        <v>70.15000000000001</v>
+      </c>
+      <c r="I129">
+        <v>22.76</v>
+      </c>
+      <c r="J129">
+        <v>2.05</v>
+      </c>
+      <c r="K129">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>4703</v>
+      </c>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130">
+        <v>1974</v>
+      </c>
+      <c r="D130" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130">
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>1997</v>
+      </c>
+      <c r="G130">
+        <v>2014</v>
+      </c>
+      <c r="H130">
+        <v>67.61</v>
+      </c>
+      <c r="I130">
+        <v>13.52</v>
+      </c>
+      <c r="J130">
+        <v>8.16</v>
+      </c>
+      <c r="K130">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>4816</v>
+      </c>
+      <c r="B131" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131">
+        <v>1976</v>
+      </c>
+      <c r="D131" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131">
+        <v>19</v>
+      </c>
+      <c r="F131">
+        <v>1998</v>
+      </c>
+      <c r="G131">
+        <v>2016</v>
+      </c>
+      <c r="H131">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="I131">
+        <v>18.89</v>
+      </c>
+      <c r="J131">
+        <v>3.01</v>
+      </c>
+      <c r="K131">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>4818</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132">
+        <v>1966</v>
+      </c>
+      <c r="D132" t="s">
+        <v>159</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
+      </c>
+      <c r="F132">
+        <v>1990</v>
+      </c>
+      <c r="G132">
+        <v>2003</v>
+      </c>
+      <c r="H132">
+        <v>78.08</v>
+      </c>
+      <c r="I132">
+        <v>20.59</v>
+      </c>
+      <c r="J132">
+        <v>9.75</v>
+      </c>
+      <c r="K132">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>4832</v>
+      </c>
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133">
+        <v>1948</v>
+      </c>
+      <c r="D133" t="s">
+        <v>159</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
+      </c>
+      <c r="F133">
+        <v>1971</v>
+      </c>
+      <c r="G133">
+        <v>1984</v>
+      </c>
+      <c r="H133">
+        <v>67.38</v>
+      </c>
+      <c r="I133">
+        <v>18.23</v>
+      </c>
+      <c r="J133">
+        <v>7.26</v>
+      </c>
+      <c r="K133">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>4858</v>
+      </c>
+      <c r="B134" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134">
+        <v>1932</v>
+      </c>
+      <c r="D134" t="s">
+        <v>159</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>1956</v>
+      </c>
+      <c r="G134">
+        <v>1966</v>
+      </c>
+      <c r="H134">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="I134">
+        <v>13.94</v>
+      </c>
+      <c r="J134">
+        <v>5.08</v>
+      </c>
+      <c r="K134">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>4863</v>
+      </c>
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135">
+        <v>1934</v>
+      </c>
+      <c r="D135" t="s">
+        <v>159</v>
+      </c>
+      <c r="E135">
+        <v>9</v>
+      </c>
+      <c r="F135">
+        <v>1957</v>
+      </c>
+      <c r="G135">
+        <v>1965</v>
+      </c>
+      <c r="H135">
+        <v>72.67</v>
+      </c>
+      <c r="I135">
+        <v>18.54</v>
+      </c>
+      <c r="J135">
+        <v>2.02</v>
+      </c>
+      <c r="K135">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>4901</v>
+      </c>
+      <c r="B136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136">
+        <v>1968</v>
+      </c>
+      <c r="D136" t="s">
+        <v>159</v>
+      </c>
+      <c r="E136">
+        <v>13</v>
+      </c>
+      <c r="F136">
+        <v>1994</v>
+      </c>
+      <c r="G136">
+        <v>2006</v>
+      </c>
+      <c r="H136">
+        <v>74.38</v>
+      </c>
+      <c r="I136">
+        <v>16.11</v>
+      </c>
+      <c r="J136">
+        <v>5.08</v>
+      </c>
+      <c r="K136">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>4924</v>
+      </c>
+      <c r="B137" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137">
+        <v>1982</v>
+      </c>
+      <c r="D137" t="s">
+        <v>159</v>
+      </c>
+      <c r="E137">
+        <v>18</v>
+      </c>
+      <c r="F137">
+        <v>2002</v>
+      </c>
+      <c r="G137">
+        <v>2019</v>
+      </c>
+      <c r="H137">
+        <v>69.67</v>
+      </c>
+      <c r="I137">
+        <v>15.37</v>
+      </c>
+      <c r="J137">
+        <v>5.59</v>
+      </c>
+      <c r="K137">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>4941</v>
+      </c>
+      <c r="B138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138">
+        <v>1979</v>
+      </c>
+      <c r="D138" t="s">
+        <v>159</v>
+      </c>
+      <c r="E138">
+        <v>15</v>
+      </c>
+      <c r="F138">
+        <v>1998</v>
+      </c>
+      <c r="G138">
+        <v>2012</v>
+      </c>
+      <c r="H138">
+        <v>64.53</v>
+      </c>
+      <c r="I138">
+        <v>19.35</v>
+      </c>
+      <c r="J138">
+        <v>4.65</v>
+      </c>
+      <c r="K138">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>5051</v>
+      </c>
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139">
+        <v>1928</v>
+      </c>
+      <c r="D139" t="s">
+        <v>159</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>1950</v>
+      </c>
+      <c r="G139">
+        <v>1959</v>
+      </c>
+      <c r="H139">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="I139">
+        <v>14.4</v>
+      </c>
+      <c r="J139">
+        <v>2.17</v>
+      </c>
+      <c r="K139">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>5066</v>
+      </c>
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140">
+        <v>1976</v>
+      </c>
+      <c r="D140" t="s">
+        <v>159</v>
+      </c>
+      <c r="E140">
+        <v>22</v>
+      </c>
+      <c r="F140">
+        <v>1999</v>
+      </c>
+      <c r="G140">
+        <v>2020</v>
+      </c>
+      <c r="H140">
+        <v>76.86</v>
+      </c>
+      <c r="I140">
+        <v>19.62</v>
+      </c>
+      <c r="J140">
+        <v>3.53</v>
+      </c>
+      <c r="K140">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>5080</v>
+      </c>
+      <c r="B141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141">
+        <v>1968</v>
+      </c>
+      <c r="D141" t="s">
+        <v>159</v>
+      </c>
+      <c r="E141">
+        <v>16</v>
+      </c>
+      <c r="F141">
+        <v>1990</v>
+      </c>
+      <c r="G141">
+        <v>2005</v>
+      </c>
+      <c r="H141">
+        <v>70.88</v>
+      </c>
+      <c r="I141">
+        <v>11.36</v>
+      </c>
+      <c r="J141">
+        <v>3.01</v>
+      </c>
+      <c r="K141">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>5102</v>
+      </c>
+      <c r="B142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142">
         <v>1939</v>
       </c>
-      <c r="D109" t="s">
-        <v>119</v>
-      </c>
-      <c r="E109">
+      <c r="D142" t="s">
+        <v>159</v>
+      </c>
+      <c r="E142">
+        <v>14</v>
+      </c>
+      <c r="F142">
+        <v>1962</v>
+      </c>
+      <c r="G142">
+        <v>1975</v>
+      </c>
+      <c r="H142">
+        <v>92.14</v>
+      </c>
+      <c r="I142">
+        <v>26.36</v>
+      </c>
+      <c r="J142">
+        <v>3.29</v>
+      </c>
+      <c r="K142">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>5105</v>
+      </c>
+      <c r="B143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143">
+        <v>1945</v>
+      </c>
+      <c r="D143" t="s">
+        <v>159</v>
+      </c>
+      <c r="E143">
+        <v>13</v>
+      </c>
+      <c r="F143">
+        <v>1968</v>
+      </c>
+      <c r="G143">
+        <v>1980</v>
+      </c>
+      <c r="H143">
+        <v>63.46</v>
+      </c>
+      <c r="I143">
+        <v>17.09</v>
+      </c>
+      <c r="J143">
+        <v>5.56</v>
+      </c>
+      <c r="K143">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>5118</v>
+      </c>
+      <c r="B144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144">
+        <v>1954</v>
+      </c>
+      <c r="D144" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144">
+        <v>15</v>
+      </c>
+      <c r="F144">
+        <v>1978</v>
+      </c>
+      <c r="G144">
+        <v>1992</v>
+      </c>
+      <c r="H144">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="I144">
+        <v>19.99</v>
+      </c>
+      <c r="J144">
+        <v>3.93</v>
+      </c>
+      <c r="K144">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>5162</v>
+      </c>
+      <c r="B145" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145">
+        <v>1946</v>
+      </c>
+      <c r="D145" t="s">
+        <v>159</v>
+      </c>
+      <c r="E145">
+        <v>13</v>
+      </c>
+      <c r="F145">
+        <v>1969</v>
+      </c>
+      <c r="G145">
+        <v>1981</v>
+      </c>
+      <c r="H145">
+        <v>75.69</v>
+      </c>
+      <c r="I145">
+        <v>10.64</v>
+      </c>
+      <c r="J145">
+        <v>3.85</v>
+      </c>
+      <c r="K145">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>5219</v>
+      </c>
+      <c r="B146" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146">
+        <v>1942</v>
+      </c>
+      <c r="D146" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>1965</v>
+      </c>
+      <c r="G146">
+        <v>1974</v>
+      </c>
+      <c r="H146">
+        <v>65</v>
+      </c>
+      <c r="I146">
+        <v>17.59</v>
+      </c>
+      <c r="J146">
+        <v>1.82</v>
+      </c>
+      <c r="K146">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>5224</v>
+      </c>
+      <c r="B147" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147">
+        <v>1936</v>
+      </c>
+      <c r="D147" t="s">
+        <v>159</v>
+      </c>
+      <c r="E147">
+        <v>14</v>
+      </c>
+      <c r="F147">
+        <v>1960</v>
+      </c>
+      <c r="G147">
+        <v>1973</v>
+      </c>
+      <c r="H147">
+        <v>79.86</v>
+      </c>
+      <c r="I147">
+        <v>35.01</v>
+      </c>
+      <c r="J147">
+        <v>4.88</v>
+      </c>
+      <c r="K147">
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>5246</v>
+      </c>
+      <c r="B148" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148">
+        <v>1980</v>
+      </c>
+      <c r="D148" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148">
+        <v>8</v>
+      </c>
+      <c r="F148">
+        <v>2003</v>
+      </c>
+      <c r="G148">
+        <v>2011</v>
+      </c>
+      <c r="H148">
+        <v>60.75</v>
+      </c>
+      <c r="I148">
+        <v>18.56</v>
+      </c>
+      <c r="J148">
+        <v>1.55</v>
+      </c>
+      <c r="K148">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>5276</v>
+      </c>
+      <c r="B149" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149">
+        <v>1939</v>
+      </c>
+      <c r="D149" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149">
         <v>12</v>
       </c>
-      <c r="F109">
+      <c r="F149">
         <v>1963</v>
       </c>
-      <c r="G109">
+      <c r="G149">
         <v>1975</v>
       </c>
-      <c r="H109">
+      <c r="H149">
         <v>74.08</v>
       </c>
-      <c r="I109">
+      <c r="I149">
         <v>16.93</v>
       </c>
-      <c r="J109">
+      <c r="J149">
         <v>1.53</v>
       </c>
-      <c r="K109">
+      <c r="K149">
         <v>10.8</v>
       </c>
-      <c r="N109">
-        <f t="shared" ref="N109" si="29">$M$6-F109</f>
-        <v>11</v>
-      </c>
-      <c r="P109" s="3">
-        <f>E109-N109</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K109" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="1960"/>
-        <filter val="1961"/>
-        <filter val="1962"/>
-        <filter val="1963"/>
-        <filter val="1964"/>
-        <filter val="1965"/>
-        <filter val="1966"/>
-        <filter val="1967"/>
-        <filter val="1968"/>
-        <filter val="1969"/>
-        <filter val="1970"/>
-        <filter val="1971"/>
-        <filter val="1972"/>
-        <filter val="1973"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hofer_list_and_player_per_game_averages.xlsx
+++ b/hofer_list_and_player_per_game_averages.xlsx
@@ -1804,7 +1804,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -1904,12 +1904,12 @@
         <v>3.54</v>
       </c>
       <c r="K30">
-        <v>3.24</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B45" t="s">
         <v>54</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="B48" t="s">
         <v>57</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B49" t="s">
         <v>58</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="B51" t="s">
         <v>60</v>
@@ -2639,12 +2639,12 @@
         <v>5.71</v>
       </c>
       <c r="K51">
-        <v>4.17</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="B52" t="s">
         <v>61</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B54" t="s">
         <v>63</v>
@@ -2744,12 +2744,12 @@
         <v>2.34</v>
       </c>
       <c r="K54">
-        <v>7.35</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="B55" t="s">
         <v>64</v>
@@ -2779,12 +2779,12 @@
         <v>3.03</v>
       </c>
       <c r="K55">
-        <v>11.66</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="B57" t="s">
         <v>66</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="B58" t="s">
         <v>67</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="B59" t="s">
         <v>68</v>
@@ -2919,12 +2919,12 @@
         <v>3.07</v>
       </c>
       <c r="K59">
-        <v>7.13</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="B61" t="s">
         <v>70</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="B62" t="s">
         <v>71</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>1815</v>
+        <v>1819</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="B65" t="s">
         <v>74</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="B66" t="s">
         <v>75</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="B67" t="s">
         <v>76</v>
@@ -3199,12 +3199,12 @@
         <v>2.76</v>
       </c>
       <c r="K67">
-        <v>12.92</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="B69" t="s">
         <v>78</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="B70" t="s">
         <v>79</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="B71" t="s">
         <v>80</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="B72" t="s">
         <v>81</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="B74" t="s">
         <v>83</v>
@@ -3444,12 +3444,12 @@
         <v>1.74</v>
       </c>
       <c r="K74">
-        <v>11.89</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="B76" t="s">
         <v>85</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="B77" t="s">
         <v>86</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="B78" t="s">
         <v>87</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="B80" t="s">
         <v>89</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>2546</v>
+        <v>2551</v>
       </c>
       <c r="B81" t="s">
         <v>90</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>2559</v>
+        <v>2564</v>
       </c>
       <c r="B82" t="s">
         <v>91</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>2617</v>
+        <v>2622</v>
       </c>
       <c r="B83" t="s">
         <v>92</v>
@@ -3759,12 +3759,12 @@
         <v>3.21</v>
       </c>
       <c r="K83">
-        <v>7.84</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>2676</v>
+        <v>2681</v>
       </c>
       <c r="B84" t="s">
         <v>93</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="B85" t="s">
         <v>94</v>
@@ -3829,12 +3829,12 @@
         <v>1.16</v>
       </c>
       <c r="K85">
-        <v>5.28</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>2750</v>
+        <v>2755</v>
       </c>
       <c r="B86" t="s">
         <v>95</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>2795</v>
+        <v>2800</v>
       </c>
       <c r="B87" t="s">
         <v>96</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>2932</v>
+        <v>2937</v>
       </c>
       <c r="B88" t="s">
         <v>97</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>2963</v>
+        <v>2968</v>
       </c>
       <c r="B89" t="s">
         <v>98</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="B90" t="s">
         <v>99</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>2977</v>
+        <v>2982</v>
       </c>
       <c r="B91" t="s">
         <v>100</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>3092</v>
+        <v>3097</v>
       </c>
       <c r="B92" t="s">
         <v>101</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>3107</v>
+        <v>3112</v>
       </c>
       <c r="B93" t="s">
         <v>102</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>3149</v>
+        <v>3154</v>
       </c>
       <c r="B94" t="s">
         <v>103</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>3209</v>
+        <v>3215</v>
       </c>
       <c r="B95" t="s">
         <v>104</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>3280</v>
+        <v>3286</v>
       </c>
       <c r="B96" t="s">
         <v>105</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>3350</v>
+        <v>3356</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>3355</v>
+        <v>3361</v>
       </c>
       <c r="B98" t="s">
         <v>107</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>3403</v>
+        <v>3409</v>
       </c>
       <c r="B99" t="s">
         <v>108</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>3575</v>
+        <v>3581</v>
       </c>
       <c r="B100" t="s">
         <v>109</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>3583</v>
+        <v>3589</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>3599</v>
+        <v>3605</v>
       </c>
       <c r="B102" t="s">
         <v>111</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>3632</v>
+        <v>3638</v>
       </c>
       <c r="B103" t="s">
         <v>112</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="B104" t="s">
         <v>113</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>3758</v>
+        <v>3764</v>
       </c>
       <c r="B105" t="s">
         <v>114</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>3785</v>
+        <v>3791</v>
       </c>
       <c r="B106" t="s">
         <v>115</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>3824</v>
+        <v>3830</v>
       </c>
       <c r="B107" t="s">
         <v>116</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>3840</v>
+        <v>3846</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>3934</v>
+        <v>3940</v>
       </c>
       <c r="B109" t="s">
         <v>118</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>3981</v>
+        <v>3987</v>
       </c>
       <c r="B110" t="s">
         <v>119</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>3989</v>
+        <v>3995</v>
       </c>
       <c r="B111" t="s">
         <v>120</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>3990</v>
+        <v>3996</v>
       </c>
       <c r="B112" t="s">
         <v>121</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>4011</v>
+        <v>4017</v>
       </c>
       <c r="B113" t="s">
         <v>122</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>4023</v>
+        <v>4029</v>
       </c>
       <c r="B114" t="s">
         <v>123</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>4044</v>
+        <v>4050</v>
       </c>
       <c r="B115" t="s">
         <v>124</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116">
-        <v>4134</v>
+        <v>4140</v>
       </c>
       <c r="B116" t="s">
         <v>125</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117">
-        <v>4168</v>
+        <v>4174</v>
       </c>
       <c r="B117" t="s">
         <v>126</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118">
-        <v>4220</v>
+        <v>4227</v>
       </c>
       <c r="B118" t="s">
         <v>127</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119">
-        <v>4259</v>
+        <v>4266</v>
       </c>
       <c r="B119" t="s">
         <v>128</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120">
-        <v>4264</v>
+        <v>4271</v>
       </c>
       <c r="B120" t="s">
         <v>129</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121">
-        <v>4310</v>
+        <v>4317</v>
       </c>
       <c r="B121" t="s">
         <v>130</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122">
-        <v>4344</v>
+        <v>4351</v>
       </c>
       <c r="B122" t="s">
         <v>131</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123">
-        <v>4476</v>
+        <v>4483</v>
       </c>
       <c r="B123" t="s">
         <v>132</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124">
-        <v>4502</v>
+        <v>4509</v>
       </c>
       <c r="B124" t="s">
         <v>133</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125">
-        <v>4530</v>
+        <v>4537</v>
       </c>
       <c r="B125" t="s">
         <v>134</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126">
-        <v>4575</v>
+        <v>4582</v>
       </c>
       <c r="B126" t="s">
         <v>135</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127">
-        <v>4605</v>
+        <v>4612</v>
       </c>
       <c r="B127" t="s">
         <v>136</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128">
-        <v>4620</v>
+        <v>4627</v>
       </c>
       <c r="B128" t="s">
         <v>137</v>
@@ -5334,12 +5334,12 @@
         <v>4.89</v>
       </c>
       <c r="K128">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129">
-        <v>4639</v>
+        <v>4646</v>
       </c>
       <c r="B129" t="s">
         <v>138</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130">
-        <v>4703</v>
+        <v>4710</v>
       </c>
       <c r="B130" t="s">
         <v>139</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131">
-        <v>4816</v>
+        <v>4823</v>
       </c>
       <c r="B131" t="s">
         <v>140</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132">
-        <v>4818</v>
+        <v>4825</v>
       </c>
       <c r="B132" t="s">
         <v>141</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133">
-        <v>4832</v>
+        <v>4839</v>
       </c>
       <c r="B133" t="s">
         <v>142</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134">
-        <v>4858</v>
+        <v>4865</v>
       </c>
       <c r="B134" t="s">
         <v>143</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135">
-        <v>4863</v>
+        <v>4870</v>
       </c>
       <c r="B135" t="s">
         <v>144</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136">
-        <v>4901</v>
+        <v>4908</v>
       </c>
       <c r="B136" t="s">
         <v>145</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137">
-        <v>4924</v>
+        <v>4931</v>
       </c>
       <c r="B137" t="s">
         <v>146</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138">
-        <v>4941</v>
+        <v>4948</v>
       </c>
       <c r="B138" t="s">
         <v>147</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139">
-        <v>5051</v>
+        <v>5058</v>
       </c>
       <c r="B139" t="s">
         <v>148</v>
@@ -5719,12 +5719,12 @@
         <v>2.17</v>
       </c>
       <c r="K139">
-        <v>9.42</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140">
-        <v>5066</v>
+        <v>5073</v>
       </c>
       <c r="B140" t="s">
         <v>149</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141">
-        <v>5080</v>
+        <v>5087</v>
       </c>
       <c r="B141" t="s">
         <v>150</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142">
-        <v>5102</v>
+        <v>5109</v>
       </c>
       <c r="B142" t="s">
         <v>151</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143">
-        <v>5105</v>
+        <v>5112</v>
       </c>
       <c r="B143" t="s">
         <v>152</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144">
-        <v>5118</v>
+        <v>5125</v>
       </c>
       <c r="B144" t="s">
         <v>153</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145">
-        <v>5162</v>
+        <v>5169</v>
       </c>
       <c r="B145" t="s">
         <v>154</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146">
-        <v>5219</v>
+        <v>5226</v>
       </c>
       <c r="B146" t="s">
         <v>155</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="B147" t="s">
         <v>156</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148">
-        <v>5246</v>
+        <v>5253</v>
       </c>
       <c r="B148" t="s">
         <v>157</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149">
-        <v>5276</v>
+        <v>5283</v>
       </c>
       <c r="B149" t="s">
         <v>158</v>

--- a/hofer_list_and_player_per_game_averages.xlsx
+++ b/hofer_list_and_player_per_game_averages.xlsx
@@ -1764,7 +1764,7 @@
         <v>2.66</v>
       </c>
       <c r="K26">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="27" spans="1:11">

--- a/hofer_list_and_player_per_game_averages.xlsx
+++ b/hofer_list_and_player_per_game_averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
   <si>
     <t>player_id</t>
   </si>
@@ -851,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -999,7 +999,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1099,12 +1099,12 @@
         <v>6.47</v>
       </c>
       <c r="K7">
-        <v>5.22</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1134,12 +1134,12 @@
         <v>1.65</v>
       </c>
       <c r="K8">
-        <v>9.56</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1589,12 +1589,12 @@
         <v>4.89</v>
       </c>
       <c r="K21">
-        <v>2.9</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -1799,12 +1799,12 @@
         <v>3</v>
       </c>
       <c r="K27">
-        <v>4.14</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B48" t="s">
         <v>57</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B49" t="s">
         <v>58</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B51" t="s">
         <v>60</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B52" t="s">
         <v>61</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B54" t="s">
         <v>63</v>
@@ -2744,12 +2744,12 @@
         <v>2.34</v>
       </c>
       <c r="K54">
-        <v>11.02</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B55" t="s">
         <v>64</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B57" t="s">
         <v>66</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B58" t="s">
         <v>67</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B59" t="s">
         <v>68</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B60" t="s">
         <v>69</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B61" t="s">
         <v>70</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B62" t="s">
         <v>71</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B65" t="s">
         <v>74</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B66" t="s">
         <v>75</v>
@@ -3164,12 +3164,12 @@
         <v>4.47</v>
       </c>
       <c r="K66">
-        <v>11.74</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B67" t="s">
         <v>76</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B68" t="s">
         <v>77</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B69" t="s">
         <v>78</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B70" t="s">
         <v>79</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B71" t="s">
         <v>80</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B72" t="s">
         <v>81</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B74" t="s">
         <v>83</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B76" t="s">
         <v>85</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B77" t="s">
         <v>86</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="B92" t="s">
         <v>101</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="B93" t="s">
         <v>102</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="B94" t="s">
         <v>103</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="B95" t="s">
         <v>104</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="B96" t="s">
         <v>105</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="B98" t="s">
         <v>107</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="B99" t="s">
         <v>108</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="B100" t="s">
         <v>109</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="B102" t="s">
         <v>111</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="B103" t="s">
         <v>112</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="B104" t="s">
         <v>113</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="B105" t="s">
         <v>114</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="B106" t="s">
         <v>115</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="B107" t="s">
         <v>116</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="B109" t="s">
         <v>118</v>
@@ -4709,258 +4709,258 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>3995</v>
+        <v>3988</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C111">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="D111" t="s">
         <v>159</v>
       </c>
       <c r="E111">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="G111">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="H111">
-        <v>73.44</v>
+        <v>7</v>
       </c>
       <c r="I111">
-        <v>18.96</v>
+        <v>0.4</v>
       </c>
       <c r="J111">
-        <v>3.66</v>
+        <v>0.3</v>
       </c>
       <c r="K111">
-        <v>9.69</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112">
-        <v>1928</v>
+        <v>1980</v>
       </c>
       <c r="D112" t="s">
         <v>159</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F112">
-        <v>1951</v>
+        <v>2002</v>
       </c>
       <c r="G112">
-        <v>1962</v>
+        <v>2019</v>
       </c>
       <c r="H112">
-        <v>71.3</v>
+        <v>73.44</v>
       </c>
       <c r="I112">
-        <v>22.79</v>
+        <v>18.96</v>
       </c>
       <c r="J112">
-        <v>2.33</v>
+        <v>3.66</v>
       </c>
       <c r="K112">
-        <v>8.640000000000001</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>4017</v>
+        <v>3996</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C113">
-        <v>1977</v>
+        <v>1928</v>
       </c>
       <c r="D113" t="s">
         <v>159</v>
       </c>
       <c r="E113">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>1999</v>
+        <v>1951</v>
       </c>
       <c r="G113">
-        <v>2017</v>
+        <v>1962</v>
       </c>
       <c r="H113">
-        <v>70.68000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="I113">
-        <v>18.93</v>
+        <v>22.79</v>
       </c>
       <c r="J113">
-        <v>3.36</v>
+        <v>2.33</v>
       </c>
       <c r="K113">
-        <v>5.44</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>4029</v>
+        <v>4017</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114">
-        <v>1950</v>
+        <v>1977</v>
       </c>
       <c r="D114" t="s">
         <v>159</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F114">
-        <v>1973</v>
+        <v>1999</v>
       </c>
       <c r="G114">
-        <v>1984</v>
+        <v>2017</v>
       </c>
       <c r="H114">
-        <v>68.58</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="I114">
-        <v>14.95</v>
+        <v>18.93</v>
       </c>
       <c r="J114">
-        <v>4.34</v>
+        <v>3.36</v>
       </c>
       <c r="K114">
-        <v>1.82</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>4050</v>
+        <v>4029</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C115">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="D115" t="s">
         <v>159</v>
       </c>
       <c r="E115">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F115">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="G115">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="H115">
-        <v>70.09999999999999</v>
+        <v>68.58</v>
       </c>
       <c r="I115">
-        <v>26.67</v>
+        <v>14.95</v>
       </c>
       <c r="J115">
-        <v>5.74</v>
+        <v>4.34</v>
       </c>
       <c r="K115">
-        <v>4.21</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116">
-        <v>4140</v>
+        <v>4050</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116">
-        <v>1960</v>
+        <v>1947</v>
       </c>
       <c r="D116" t="s">
         <v>159</v>
       </c>
       <c r="E116">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F116">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="G116">
-        <v>1992</v>
+        <v>1980</v>
       </c>
       <c r="H116">
-        <v>56</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I116">
-        <v>15.59</v>
+        <v>26.67</v>
       </c>
       <c r="J116">
-        <v>2.43</v>
+        <v>5.74</v>
       </c>
       <c r="K116">
-        <v>8.44</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117">
-        <v>4174</v>
+        <v>4140</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117">
-        <v>1975</v>
+        <v>1960</v>
       </c>
       <c r="D117" t="s">
         <v>159</v>
       </c>
       <c r="E117">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F117">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="G117">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="H117">
-        <v>76.44</v>
+        <v>56</v>
       </c>
       <c r="I117">
-        <v>21.43</v>
+        <v>15.59</v>
       </c>
       <c r="J117">
-        <v>3.9</v>
+        <v>2.43</v>
       </c>
       <c r="K117">
-        <v>4.34</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118">
-        <v>4227</v>
+        <v>4174</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118">
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="D118" t="s">
         <v>159</v>
@@ -4969,348 +4969,348 @@
         <v>18</v>
       </c>
       <c r="F118">
-        <v>1988</v>
+        <v>1997</v>
       </c>
       <c r="G118">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="H118">
-        <v>77.17</v>
+        <v>76.44</v>
       </c>
       <c r="I118">
-        <v>18.12</v>
+        <v>21.43</v>
       </c>
       <c r="J118">
-        <v>2.94</v>
+        <v>3.9</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119">
-        <v>4266</v>
+        <v>4227</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119">
-        <v>1932</v>
+        <v>1965</v>
       </c>
       <c r="D119" t="s">
         <v>159</v>
       </c>
       <c r="E119">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F119">
-        <v>1957</v>
+        <v>1988</v>
       </c>
       <c r="G119">
-        <v>1970</v>
+        <v>2005</v>
       </c>
       <c r="H119">
-        <v>71.38</v>
+        <v>77.17</v>
       </c>
       <c r="I119">
-        <v>17.52</v>
+        <v>18.12</v>
       </c>
       <c r="J119">
-        <v>5.18</v>
+        <v>2.94</v>
       </c>
       <c r="K119">
-        <v>4.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120">
-        <v>4271</v>
+        <v>4266</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120">
-        <v>1944</v>
+        <v>1932</v>
       </c>
       <c r="D120" t="s">
         <v>159</v>
       </c>
       <c r="E120">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="G120">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="H120">
-        <v>72.86</v>
+        <v>71.38</v>
       </c>
       <c r="I120">
-        <v>25.24</v>
+        <v>17.52</v>
       </c>
       <c r="J120">
-        <v>4.78</v>
+        <v>5.18</v>
       </c>
       <c r="K120">
-        <v>6.83</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121">
-        <v>4317</v>
+        <v>4271</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="D121" t="s">
         <v>159</v>
       </c>
       <c r="E121">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F121">
-        <v>1977</v>
+        <v>1966</v>
       </c>
       <c r="G121">
-        <v>1997</v>
+        <v>1980</v>
       </c>
       <c r="H121">
-        <v>76.70999999999999</v>
+        <v>72.86</v>
       </c>
       <c r="I121">
-        <v>14.21</v>
+        <v>25.24</v>
       </c>
       <c r="J121">
-        <v>1.34</v>
+        <v>4.78</v>
       </c>
       <c r="K121">
-        <v>8.98</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122">
-        <v>4351</v>
+        <v>4317</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122">
-        <v>1942</v>
+        <v>1953</v>
       </c>
       <c r="D122" t="s">
         <v>159</v>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F122">
-        <v>1968</v>
+        <v>1977</v>
       </c>
       <c r="G122">
-        <v>1975</v>
+        <v>1997</v>
       </c>
       <c r="H122">
-        <v>82.62</v>
+        <v>76.70999999999999</v>
       </c>
       <c r="I122">
-        <v>20.16</v>
+        <v>14.21</v>
       </c>
       <c r="J122">
-        <v>4.54</v>
+        <v>1.34</v>
       </c>
       <c r="K122">
-        <v>6.91</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123">
-        <v>4483</v>
+        <v>4351</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123">
-        <v>1933</v>
+        <v>1942</v>
       </c>
       <c r="D123" t="s">
         <v>159</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F123">
-        <v>1958</v>
+        <v>1968</v>
       </c>
       <c r="G123">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="H123">
-        <v>72.58</v>
+        <v>82.62</v>
       </c>
       <c r="I123">
-        <v>17.4</v>
+        <v>20.16</v>
       </c>
       <c r="J123">
-        <v>2.51</v>
+        <v>4.54</v>
       </c>
       <c r="K123">
-        <v>4.9</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124">
-        <v>4509</v>
+        <v>4483</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124">
-        <v>1964</v>
+        <v>1933</v>
       </c>
       <c r="D124" t="s">
         <v>159</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F124">
-        <v>1990</v>
+        <v>1958</v>
       </c>
       <c r="G124">
-        <v>1997</v>
+        <v>1969</v>
       </c>
       <c r="H124">
-        <v>51.86</v>
+        <v>72.58</v>
       </c>
       <c r="I124">
-        <v>12.31</v>
+        <v>17.4</v>
       </c>
       <c r="J124">
-        <v>2.23</v>
+        <v>2.51</v>
       </c>
       <c r="K124">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125">
-        <v>4537</v>
+        <v>4509</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D125" t="s">
         <v>159</v>
       </c>
       <c r="E125">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F125">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="G125">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="H125">
-        <v>69.29000000000001</v>
+        <v>25</v>
       </c>
       <c r="I125">
-        <v>15.52</v>
+        <v>3.5</v>
       </c>
       <c r="J125">
-        <v>5.11</v>
+        <v>1.6</v>
       </c>
       <c r="K125">
-        <v>6.16</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126">
-        <v>4582</v>
+        <v>4536</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="D126" t="s">
         <v>159</v>
       </c>
       <c r="E126">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F126">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="G126">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="H126">
-        <v>66.73999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="I126">
-        <v>24.42</v>
+        <v>15.52</v>
       </c>
       <c r="J126">
-        <v>2.59</v>
+        <v>5.11</v>
       </c>
       <c r="K126">
-        <v>11</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127">
-        <v>4612</v>
+        <v>4580</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C127">
-        <v>1957</v>
+        <v>1972</v>
       </c>
       <c r="D127" t="s">
         <v>159</v>
       </c>
       <c r="E127">
+        <v>19</v>
+      </c>
+      <c r="F127">
+        <v>1993</v>
+      </c>
+      <c r="G127">
+        <v>2011</v>
+      </c>
+      <c r="H127">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="I127">
+        <v>24.42</v>
+      </c>
+      <c r="J127">
+        <v>2.59</v>
+      </c>
+      <c r="K127">
         <v>11</v>
-      </c>
-      <c r="F127">
-        <v>1980</v>
-      </c>
-      <c r="G127">
-        <v>1991</v>
-      </c>
-      <c r="H127">
-        <v>69.73</v>
-      </c>
-      <c r="I127">
-        <v>15.18</v>
-      </c>
-      <c r="J127">
-        <v>3.58</v>
-      </c>
-      <c r="K127">
-        <v>4.53</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128">
-        <v>4627</v>
+        <v>4610</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128">
-        <v>1925</v>
+        <v>1957</v>
       </c>
       <c r="D128" t="s">
         <v>159</v>
@@ -5319,173 +5319,173 @@
         <v>11</v>
       </c>
       <c r="F128">
-        <v>1950</v>
+        <v>1980</v>
       </c>
       <c r="G128">
-        <v>1960</v>
+        <v>1991</v>
       </c>
       <c r="H128">
-        <v>73.73</v>
+        <v>69.73</v>
       </c>
       <c r="I128">
-        <v>11.63</v>
+        <v>15.18</v>
       </c>
       <c r="J128">
-        <v>4.89</v>
+        <v>3.58</v>
       </c>
       <c r="K128">
-        <v>3.41</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129">
-        <v>4646</v>
+        <v>4625</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129">
-        <v>1949</v>
+        <v>1925</v>
       </c>
       <c r="D129" t="s">
         <v>159</v>
       </c>
       <c r="E129">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F129">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="G129">
-        <v>1983</v>
+        <v>1960</v>
       </c>
       <c r="H129">
-        <v>70.15000000000001</v>
+        <v>73.73</v>
       </c>
       <c r="I129">
-        <v>22.76</v>
+        <v>11.63</v>
       </c>
       <c r="J129">
-        <v>2.05</v>
+        <v>4.89</v>
       </c>
       <c r="K129">
-        <v>10.57</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130">
-        <v>4710</v>
+        <v>4644</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C130">
-        <v>1974</v>
+        <v>1949</v>
       </c>
       <c r="D130" t="s">
         <v>159</v>
       </c>
       <c r="E130">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F130">
-        <v>1997</v>
+        <v>1970</v>
       </c>
       <c r="G130">
-        <v>2014</v>
+        <v>1983</v>
       </c>
       <c r="H130">
-        <v>67.61</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="I130">
-        <v>13.52</v>
+        <v>22.76</v>
       </c>
       <c r="J130">
-        <v>8.16</v>
+        <v>2.05</v>
       </c>
       <c r="K130">
-        <v>2.91</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131">
-        <v>4823</v>
+        <v>4708</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D131" t="s">
         <v>159</v>
       </c>
       <c r="E131">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F131">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G131">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="H131">
-        <v>73.26000000000001</v>
+        <v>67.61</v>
       </c>
       <c r="I131">
-        <v>18.89</v>
+        <v>13.52</v>
       </c>
       <c r="J131">
-        <v>3.01</v>
+        <v>8.16</v>
       </c>
       <c r="K131">
-        <v>10.77</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132">
-        <v>4825</v>
+        <v>4821</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C132">
-        <v>1966</v>
+        <v>1976</v>
       </c>
       <c r="D132" t="s">
         <v>159</v>
       </c>
       <c r="E132">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F132">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="G132">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="H132">
-        <v>78.08</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="I132">
-        <v>20.59</v>
+        <v>18.89</v>
       </c>
       <c r="J132">
-        <v>9.75</v>
+        <v>3.01</v>
       </c>
       <c r="K132">
-        <v>3.52</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133">
-        <v>4839</v>
+        <v>4823</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C133">
-        <v>1948</v>
+        <v>1966</v>
       </c>
       <c r="D133" t="s">
         <v>159</v>
@@ -5494,581 +5494,616 @@
         <v>13</v>
       </c>
       <c r="F133">
-        <v>1971</v>
+        <v>1990</v>
       </c>
       <c r="G133">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="H133">
-        <v>67.38</v>
+        <v>78.08</v>
       </c>
       <c r="I133">
-        <v>18.23</v>
+        <v>20.59</v>
       </c>
       <c r="J133">
-        <v>7.26</v>
+        <v>9.75</v>
       </c>
       <c r="K133">
-        <v>2.3</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134">
-        <v>4865</v>
+        <v>4837</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C134">
-        <v>1932</v>
+        <v>1948</v>
       </c>
       <c r="D134" t="s">
         <v>159</v>
       </c>
       <c r="E134">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F134">
-        <v>1956</v>
+        <v>1971</v>
       </c>
       <c r="G134">
-        <v>1966</v>
+        <v>1984</v>
       </c>
       <c r="H134">
-        <v>77.09999999999999</v>
+        <v>67.38</v>
       </c>
       <c r="I134">
-        <v>13.94</v>
+        <v>18.23</v>
       </c>
       <c r="J134">
-        <v>5.08</v>
+        <v>7.26</v>
       </c>
       <c r="K134">
-        <v>8.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135">
-        <v>4870</v>
+        <v>4863</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C135">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D135" t="s">
         <v>159</v>
       </c>
       <c r="E135">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F135">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G135">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="H135">
-        <v>72.67</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I135">
-        <v>18.54</v>
+        <v>13.94</v>
       </c>
       <c r="J135">
-        <v>2.02</v>
+        <v>5.08</v>
       </c>
       <c r="K135">
-        <v>8.81</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136">
-        <v>4908</v>
+        <v>4868</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C136">
-        <v>1968</v>
+        <v>1934</v>
       </c>
       <c r="D136" t="s">
         <v>159</v>
       </c>
       <c r="E136">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F136">
-        <v>1994</v>
+        <v>1957</v>
       </c>
       <c r="G136">
-        <v>2006</v>
+        <v>1965</v>
       </c>
       <c r="H136">
-        <v>74.38</v>
+        <v>72.67</v>
       </c>
       <c r="I136">
-        <v>16.11</v>
+        <v>18.54</v>
       </c>
       <c r="J136">
-        <v>5.08</v>
+        <v>2.02</v>
       </c>
       <c r="K136">
-        <v>5.02</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137">
-        <v>4931</v>
+        <v>4907</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C137">
-        <v>1982</v>
+        <v>1968</v>
       </c>
       <c r="D137" t="s">
         <v>159</v>
       </c>
       <c r="E137">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F137">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="G137">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="H137">
-        <v>69.67</v>
+        <v>74.38</v>
       </c>
       <c r="I137">
-        <v>15.37</v>
+        <v>16.11</v>
       </c>
       <c r="J137">
-        <v>5.59</v>
+        <v>5.08</v>
       </c>
       <c r="K137">
-        <v>2.66</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138">
-        <v>4948</v>
+        <v>4930</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C138">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="D138" t="s">
         <v>159</v>
       </c>
       <c r="E138">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F138">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="G138">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="H138">
-        <v>64.53</v>
+        <v>69.67</v>
       </c>
       <c r="I138">
-        <v>19.35</v>
+        <v>15.37</v>
       </c>
       <c r="J138">
-        <v>4.65</v>
+        <v>5.59</v>
       </c>
       <c r="K138">
-        <v>5.51</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139">
-        <v>5058</v>
+        <v>4947</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C139">
-        <v>1928</v>
+        <v>1979</v>
       </c>
       <c r="D139" t="s">
         <v>159</v>
       </c>
       <c r="E139">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F139">
-        <v>1950</v>
+        <v>1998</v>
       </c>
       <c r="G139">
-        <v>1959</v>
+        <v>2012</v>
       </c>
       <c r="H139">
-        <v>69.90000000000001</v>
+        <v>64.53</v>
       </c>
       <c r="I139">
-        <v>14.4</v>
+        <v>19.35</v>
       </c>
       <c r="J139">
-        <v>2.17</v>
+        <v>4.65</v>
       </c>
       <c r="K139">
-        <v>8.48</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140">
-        <v>5073</v>
+        <v>5056</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C140">
-        <v>1976</v>
+        <v>1928</v>
       </c>
       <c r="D140" t="s">
         <v>159</v>
       </c>
       <c r="E140">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F140">
-        <v>1999</v>
+        <v>1950</v>
       </c>
       <c r="G140">
-        <v>2020</v>
+        <v>1959</v>
       </c>
       <c r="H140">
-        <v>76.86</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I140">
-        <v>19.62</v>
+        <v>14.4</v>
       </c>
       <c r="J140">
-        <v>3.53</v>
+        <v>2.17</v>
       </c>
       <c r="K140">
-        <v>4.59</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141">
-        <v>5087</v>
+        <v>5071</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C141">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="D141" t="s">
         <v>159</v>
       </c>
       <c r="E141">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F141">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="G141">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="H141">
-        <v>70.88</v>
+        <v>76.86</v>
       </c>
       <c r="I141">
-        <v>11.36</v>
+        <v>19.62</v>
       </c>
       <c r="J141">
-        <v>3.01</v>
+        <v>3.53</v>
       </c>
       <c r="K141">
-        <v>7.92</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142">
-        <v>5109</v>
+        <v>5085</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C142">
-        <v>1939</v>
+        <v>1968</v>
       </c>
       <c r="D142" t="s">
         <v>159</v>
       </c>
       <c r="E142">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F142">
-        <v>1962</v>
+        <v>1990</v>
       </c>
       <c r="G142">
-        <v>1975</v>
+        <v>2005</v>
       </c>
       <c r="H142">
-        <v>92.14</v>
+        <v>70.88</v>
       </c>
       <c r="I142">
-        <v>26.36</v>
+        <v>11.36</v>
       </c>
       <c r="J142">
-        <v>3.29</v>
+        <v>3.01</v>
       </c>
       <c r="K142">
-        <v>15.67</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143">
-        <v>5112</v>
+        <v>5107</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C143">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="D143" t="s">
         <v>159</v>
       </c>
       <c r="E143">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F143">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="G143">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="H143">
-        <v>63.46</v>
+        <v>92.14</v>
       </c>
       <c r="I143">
-        <v>17.09</v>
+        <v>26.36</v>
       </c>
       <c r="J143">
-        <v>5.56</v>
+        <v>3.29</v>
       </c>
       <c r="K143">
-        <v>5.18</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144">
-        <v>5125</v>
+        <v>5110</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C144">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="D144" t="s">
         <v>159</v>
       </c>
       <c r="E144">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F144">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="G144">
-        <v>1992</v>
+        <v>1980</v>
       </c>
       <c r="H144">
-        <v>73.59999999999999</v>
+        <v>63.46</v>
       </c>
       <c r="I144">
-        <v>19.99</v>
+        <v>17.09</v>
       </c>
       <c r="J144">
-        <v>3.93</v>
+        <v>5.56</v>
       </c>
       <c r="K144">
-        <v>2.98</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145">
-        <v>5169</v>
+        <v>5123</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C145">
-        <v>1946</v>
+        <v>1954</v>
       </c>
       <c r="D145" t="s">
         <v>159</v>
       </c>
       <c r="E145">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F145">
-        <v>1969</v>
+        <v>1978</v>
       </c>
       <c r="G145">
-        <v>1981</v>
+        <v>1992</v>
       </c>
       <c r="H145">
-        <v>75.69</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I145">
-        <v>10.64</v>
+        <v>19.99</v>
       </c>
       <c r="J145">
-        <v>3.85</v>
+        <v>3.93</v>
       </c>
       <c r="K145">
-        <v>13.85</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146">
-        <v>5226</v>
+        <v>5167</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C146">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="D146" t="s">
         <v>159</v>
       </c>
       <c r="E146">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F146">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="G146">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="H146">
-        <v>65</v>
+        <v>75.69</v>
       </c>
       <c r="I146">
-        <v>17.59</v>
+        <v>10.64</v>
       </c>
       <c r="J146">
-        <v>1.82</v>
+        <v>3.85</v>
       </c>
       <c r="K146">
-        <v>12.09</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147">
-        <v>5231</v>
+        <v>5224</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C147">
-        <v>1936</v>
+        <v>1942</v>
       </c>
       <c r="D147" t="s">
         <v>159</v>
       </c>
       <c r="E147">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="G147">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="H147">
-        <v>79.86</v>
+        <v>65</v>
       </c>
       <c r="I147">
-        <v>35.01</v>
+        <v>17.59</v>
       </c>
       <c r="J147">
-        <v>4.88</v>
+        <v>1.82</v>
       </c>
       <c r="K147">
-        <v>24.31</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148">
-        <v>5253</v>
+        <v>5229</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C148">
-        <v>1980</v>
+        <v>1936</v>
       </c>
       <c r="D148" t="s">
         <v>159</v>
       </c>
       <c r="E148">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F148">
-        <v>2003</v>
+        <v>1960</v>
       </c>
       <c r="G148">
-        <v>2011</v>
+        <v>1973</v>
       </c>
       <c r="H148">
-        <v>60.75</v>
+        <v>79.86</v>
       </c>
       <c r="I148">
-        <v>18.56</v>
+        <v>35.01</v>
       </c>
       <c r="J148">
-        <v>1.55</v>
+        <v>4.88</v>
       </c>
       <c r="K148">
-        <v>8.91</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149">
-        <v>5283</v>
+        <v>5251</v>
       </c>
       <c r="B149" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149">
+        <v>1980</v>
+      </c>
+      <c r="D149" t="s">
+        <v>159</v>
+      </c>
+      <c r="E149">
+        <v>8</v>
+      </c>
+      <c r="F149">
+        <v>2003</v>
+      </c>
+      <c r="G149">
+        <v>2011</v>
+      </c>
+      <c r="H149">
+        <v>60.75</v>
+      </c>
+      <c r="I149">
+        <v>18.56</v>
+      </c>
+      <c r="J149">
+        <v>1.55</v>
+      </c>
+      <c r="K149">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>5280</v>
+      </c>
+      <c r="B150" t="s">
         <v>158</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <v>1939</v>
       </c>
-      <c r="D149" t="s">
-        <v>159</v>
-      </c>
-      <c r="E149">
+      <c r="D150" t="s">
+        <v>159</v>
+      </c>
+      <c r="E150">
         <v>12</v>
       </c>
-      <c r="F149">
+      <c r="F150">
         <v>1963</v>
       </c>
-      <c r="G149">
+      <c r="G150">
         <v>1975</v>
       </c>
-      <c r="H149">
+      <c r="H150">
         <v>74.08</v>
       </c>
-      <c r="I149">
+      <c r="I150">
         <v>16.93</v>
       </c>
-      <c r="J149">
+      <c r="J150">
         <v>1.53</v>
       </c>
-      <c r="K149">
+      <c r="K150">
         <v>10.8</v>
       </c>
     </row>
